--- a/Code/Results/Cases/Case_0_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_58/res_bus/vm_pu.xlsx
@@ -418,158 +418,983 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.9912667752661835</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.9998698370258764</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.9988380280573601</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>1.000528144522264</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>1.043921984187488</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>1.013711870579539</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.011330985523187</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>1.010313574766766</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>1.011980126353481</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.008302514194762</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="1">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1.05</v>
+      </c>
+      <c r="C3">
+        <v>0.9969952918148958</v>
+      </c>
+      <c r="D3">
+        <v>1.004649085580807</v>
+      </c>
+      <c r="E3">
+        <v>1.003486812341382</v>
+      </c>
+      <c r="F3">
+        <v>1.00688740201818</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1.045720715607745</v>
+      </c>
+      <c r="J3">
+        <v>1.017568204709549</v>
+      </c>
+      <c r="K3">
+        <v>1.015222824100262</v>
+      </c>
+      <c r="L3">
+        <v>1.014075272315958</v>
+      </c>
+      <c r="M3">
+        <v>1.017432909263338</v>
+      </c>
+      <c r="N3">
+        <v>1.009608328296963</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.000606576668051</v>
+      </c>
+      <c r="D4">
+        <v>1.007667352546167</v>
+      </c>
+      <c r="E4">
+        <v>1.00642388334866</v>
+      </c>
+      <c r="F4">
+        <v>1.01089675214108</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1.04683775214057</v>
+      </c>
+      <c r="J4">
+        <v>1.019994778869487</v>
+      </c>
+      <c r="K4">
+        <v>1.017674111860389</v>
+      </c>
+      <c r="L4">
+        <v>1.016445391142747</v>
+      </c>
+      <c r="M4">
+        <v>1.020865418139275</v>
+      </c>
+      <c r="N4">
+        <v>1.010429671212937</v>
+      </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>1.05</v>
+      </c>
+      <c r="C5">
+        <v>1.002102940952962</v>
+      </c>
+      <c r="D5">
+        <v>1.008919232522525</v>
+      </c>
+      <c r="E5">
+        <v>1.007642366256424</v>
+      </c>
+      <c r="F5">
+        <v>1.012558195014697</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1.047296493964033</v>
+      </c>
+      <c r="J5">
+        <v>1.02099912867843</v>
+      </c>
+      <c r="K5">
+        <v>1.018689258499991</v>
+      </c>
+      <c r="L5">
+        <v>1.017427112711875</v>
+      </c>
+      <c r="M5">
+        <v>1.022286520147406</v>
+      </c>
+      <c r="N5">
+        <v>1.01076953488076</v>
+      </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>1.05</v>
+      </c>
+      <c r="C6">
+        <v>1.002352936249727</v>
+      </c>
+      <c r="D6">
+        <v>1.009128453283741</v>
+      </c>
+      <c r="E6">
+        <v>1.007846021821881</v>
+      </c>
+      <c r="F6">
+        <v>1.012835778652662</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1.047372891852252</v>
+      </c>
+      <c r="J6">
+        <v>1.021166856687244</v>
+      </c>
+      <c r="K6">
+        <v>1.018858822970246</v>
+      </c>
+      <c r="L6">
+        <v>1.017591105093286</v>
+      </c>
+      <c r="M6">
+        <v>1.02252387187484</v>
+      </c>
+      <c r="N6">
+        <v>1.010826287324598</v>
+      </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>1.05</v>
+      </c>
+      <c r="C7">
+        <v>1.000626655585654</v>
+      </c>
+      <c r="D7">
+        <v>1.007684146041598</v>
+      </c>
+      <c r="E7">
+        <v>1.006440227735177</v>
+      </c>
+      <c r="F7">
+        <v>1.010919045579403</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1.046843924087918</v>
+      </c>
+      <c r="J7">
+        <v>1.020008260196159</v>
+      </c>
+      <c r="K7">
+        <v>1.017687735866368</v>
+      </c>
+      <c r="L7">
+        <v>1.016458565814984</v>
+      </c>
+      <c r="M7">
+        <v>1.020884491835802</v>
+      </c>
+      <c r="N7">
+        <v>1.010434233536233</v>
+      </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>1.05</v>
+      </c>
+      <c r="C8">
+        <v>0.9932231606702178</v>
+      </c>
+      <c r="D8">
+        <v>1.001500855942386</v>
+      </c>
+      <c r="E8">
+        <v>1.000424267373081</v>
+      </c>
+      <c r="F8">
+        <v>1.002699865080224</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1.044539801203213</v>
+      </c>
+      <c r="J8">
+        <v>1.015029787769103</v>
+      </c>
+      <c r="K8">
+        <v>1.012660535489571</v>
+      </c>
+      <c r="L8">
+        <v>1.011598494752849</v>
+      </c>
+      <c r="M8">
+        <v>1.013843388757027</v>
+      </c>
+      <c r="N8">
+        <v>1.008748846777269</v>
+      </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>0.9793959894348029</v>
+      </c>
+      <c r="D9">
+        <v>0.989999142524681</v>
+      </c>
+      <c r="E9">
+        <v>0.9892437588776662</v>
+      </c>
+      <c r="F9">
+        <v>0.987351242274212</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>1.040103216310637</v>
+      </c>
+      <c r="J9">
+        <v>1.005697913040109</v>
+      </c>
+      <c r="K9">
+        <v>1.0032565877438</v>
+      </c>
+      <c r="L9">
+        <v>1.002513793029147</v>
+      </c>
+      <c r="M9">
+        <v>1.000652925409393</v>
+      </c>
+      <c r="N9">
+        <v>1.005587348531194</v>
+      </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>1.05</v>
+      </c>
+      <c r="C10">
+        <v>0.9695755158061026</v>
+      </c>
+      <c r="D10">
+        <v>0.9818665703145876</v>
+      </c>
+      <c r="E10">
+        <v>0.9813456060994692</v>
+      </c>
+      <c r="F10">
+        <v>0.9764489724002832</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1.036865525271268</v>
+      </c>
+      <c r="J10">
+        <v>0.9990504966707701</v>
+      </c>
+      <c r="K10">
+        <v>0.9965711341280107</v>
+      </c>
+      <c r="L10">
+        <v>0.99606004260164</v>
+      </c>
+      <c r="M10">
+        <v>0.991256878181061</v>
+      </c>
+      <c r="N10">
+        <v>1.003334236028091</v>
+      </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>1.05</v>
+      </c>
+      <c r="C11">
+        <v>0.9651607860535507</v>
+      </c>
+      <c r="D11">
+        <v>0.9782203968848457</v>
+      </c>
+      <c r="E11">
+        <v>0.9778064040277957</v>
+      </c>
+      <c r="F11">
+        <v>0.9715469712854518</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1.035390370618926</v>
+      </c>
+      <c r="J11">
+        <v>0.9960583388467007</v>
+      </c>
+      <c r="K11">
+        <v>0.9935650741409476</v>
+      </c>
+      <c r="L11">
+        <v>0.9931593571873939</v>
+      </c>
+      <c r="M11">
+        <v>0.9870261861512241</v>
+      </c>
+      <c r="N11">
+        <v>1.002319925531756</v>
+      </c>
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>1.05</v>
+      </c>
+      <c r="C12">
+        <v>0.9634946983506938</v>
+      </c>
+      <c r="D12">
+        <v>0.9768459325316579</v>
+      </c>
+      <c r="E12">
+        <v>0.9764725577557615</v>
+      </c>
+      <c r="F12">
+        <v>0.9696967817300206</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1.034830784268055</v>
+      </c>
+      <c r="J12">
+        <v>0.9949286146002956</v>
+      </c>
+      <c r="K12">
+        <v>0.9924305909038547</v>
+      </c>
+      <c r="L12">
+        <v>0.9920648272944329</v>
+      </c>
+      <c r="M12">
+        <v>0.9854285194325524</v>
+      </c>
+      <c r="N12">
+        <v>1.001936951838433</v>
+      </c>
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1.05</v>
+      </c>
+      <c r="C13">
+        <v>0.9638533001652226</v>
+      </c>
+      <c r="D13">
+        <v>0.9771416935800378</v>
+      </c>
+      <c r="E13">
+        <v>0.9767595649927757</v>
+      </c>
+      <c r="F13">
+        <v>0.9700950194397524</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="I13">
+        <v>1.034951355689947</v>
+      </c>
+      <c r="J13">
+        <v>0.9951717933266756</v>
+      </c>
+      <c r="K13">
+        <v>0.9926747717958686</v>
+      </c>
+      <c r="L13">
+        <v>0.992300400351057</v>
+      </c>
+      <c r="M13">
+        <v>0.9857724415892006</v>
+      </c>
+      <c r="N13">
+        <v>1.002019389038044</v>
+      </c>
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>1.05</v>
+      </c>
+      <c r="C14">
+        <v>0.9650236138797184</v>
+      </c>
+      <c r="D14">
+        <v>0.9781072019847042</v>
+      </c>
+      <c r="E14">
+        <v>0.9776965482062827</v>
+      </c>
+      <c r="F14">
+        <v>0.9713946463038738</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1.035344356643578</v>
+      </c>
+      <c r="J14">
+        <v>0.995965336304741</v>
+      </c>
+      <c r="K14">
+        <v>0.9934716698410763</v>
+      </c>
+      <c r="L14">
+        <v>0.9930692385322307</v>
+      </c>
+      <c r="M14">
+        <v>0.9868946683010933</v>
+      </c>
+      <c r="N14">
+        <v>1.002288398018102</v>
+      </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1.05</v>
+      </c>
+      <c r="C15">
+        <v>0.9657411440656969</v>
+      </c>
+      <c r="D15">
+        <v>0.978699374879117</v>
+      </c>
+      <c r="E15">
+        <v>0.9782712649460021</v>
+      </c>
+      <c r="F15">
+        <v>0.9721914299816382</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1.035584933471098</v>
+      </c>
+      <c r="J15">
+        <v>0.9964518006683196</v>
+      </c>
+      <c r="K15">
+        <v>0.993960255634311</v>
+      </c>
+      <c r="L15">
+        <v>0.9935406451141801</v>
+      </c>
+      <c r="M15">
+        <v>0.9875825792682954</v>
+      </c>
+      <c r="N15">
+        <v>1.002453307321727</v>
+      </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>1.05</v>
+      </c>
+      <c r="C16">
+        <v>0.9698649306805381</v>
+      </c>
+      <c r="D16">
+        <v>0.9821058128542732</v>
+      </c>
+      <c r="E16">
+        <v>0.9815778696873559</v>
+      </c>
+      <c r="F16">
+        <v>0.9767703059717217</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1.036961830010154</v>
+      </c>
+      <c r="J16">
+        <v>0.9992465786098669</v>
+      </c>
+      <c r="K16">
+        <v>0.9967681943900044</v>
+      </c>
+      <c r="L16">
+        <v>0.9962502203270733</v>
+      </c>
+      <c r="M16">
+        <v>0.9915340864357814</v>
+      </c>
+      <c r="N16">
+        <v>1.003400703945433</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>1.05</v>
+      </c>
+      <c r="C17">
+        <v>0.9724069380905054</v>
+      </c>
+      <c r="D17">
+        <v>0.9842082620603062</v>
+      </c>
+      <c r="E17">
+        <v>0.9836192019478804</v>
+      </c>
+      <c r="F17">
+        <v>0.9795925483495507</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1.037805481696181</v>
+      </c>
+      <c r="J17">
+        <v>1.000968389992094</v>
+      </c>
+      <c r="K17">
+        <v>0.9984989615135665</v>
+      </c>
+      <c r="L17">
+        <v>0.9979206741558629</v>
+      </c>
+      <c r="M17">
+        <v>0.9939681125217628</v>
+      </c>
+      <c r="N17">
+        <v>1.003984350464241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>1.05</v>
+      </c>
+      <c r="C18">
+        <v>0.9738741141891578</v>
+      </c>
+      <c r="D18">
+        <v>0.9854226517370255</v>
+      </c>
+      <c r="E18">
+        <v>0.9847984659599988</v>
+      </c>
+      <c r="F18">
+        <v>0.9812213826662165</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1.038290552609447</v>
+      </c>
+      <c r="J18">
+        <v>1.001961802920941</v>
+      </c>
+      <c r="K18">
+        <v>0.9994978445642244</v>
+      </c>
+      <c r="L18">
+        <v>0.9988848603338844</v>
+      </c>
+      <c r="M18">
+        <v>0.995372328362677</v>
+      </c>
+      <c r="N18">
+        <v>1.004321076857178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+      <c r="C19">
+        <v>0.9743718020018037</v>
+      </c>
+      <c r="D19">
+        <v>0.9858347427114621</v>
+      </c>
+      <c r="E19">
+        <v>0.9851986668666805</v>
+      </c>
+      <c r="F19">
+        <v>0.981773894623105</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1.038454777727903</v>
+      </c>
+      <c r="J19">
+        <v>1.0022987185957</v>
+      </c>
+      <c r="K19">
+        <v>0.9998366666603096</v>
+      </c>
+      <c r="L19">
+        <v>0.9992119320299855</v>
+      </c>
+      <c r="M19">
+        <v>0.9958485516439244</v>
+      </c>
+      <c r="N19">
+        <v>1.004435274958004</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>1.05</v>
+      </c>
+      <c r="C20">
+        <v>0.9721358243379076</v>
+      </c>
+      <c r="D20">
+        <v>0.983983932991356</v>
+      </c>
+      <c r="E20">
+        <v>0.9834013756382534</v>
+      </c>
+      <c r="F20">
+        <v>0.9792915559133865</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>1.037715696120221</v>
+      </c>
+      <c r="J20">
+        <v>1.000784790733737</v>
+      </c>
+      <c r="K20">
+        <v>0.9983143757735246</v>
+      </c>
+      <c r="L20">
+        <v>0.9977425091422812</v>
+      </c>
+      <c r="M20">
+        <v>0.9937085815581522</v>
+      </c>
+      <c r="N20">
+        <v>1.003922116676469</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>1.05</v>
+      </c>
+      <c r="C21">
+        <v>0.9646797264964247</v>
+      </c>
+      <c r="D21">
+        <v>0.9778234507936028</v>
+      </c>
+      <c r="E21">
+        <v>0.9774211720263684</v>
+      </c>
+      <c r="F21">
+        <v>0.9710127675900601</v>
+      </c>
+      <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>1.035228954748917</v>
+      </c>
+      <c r="J21">
+        <v>0.9957321732735734</v>
+      </c>
+      <c r="K21">
+        <v>0.993237507484386</v>
+      </c>
+      <c r="L21">
+        <v>0.9928433162094331</v>
+      </c>
+      <c r="M21">
+        <v>0.9865649394745245</v>
+      </c>
+      <c r="N21">
+        <v>1.002209356518399</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>1.05</v>
+      </c>
+      <c r="C22">
+        <v>0.9598387789456109</v>
+      </c>
+      <c r="D22">
+        <v>0.9738329560656138</v>
+      </c>
+      <c r="E22">
+        <v>0.9735491773928283</v>
+      </c>
+      <c r="F22">
+        <v>0.9656364202703849</v>
+      </c>
+      <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>1.033597677333314</v>
+      </c>
+      <c r="J22">
+        <v>0.9924488011585462</v>
+      </c>
+      <c r="K22">
+        <v>0.9899412417261471</v>
+      </c>
+      <c r="L22">
+        <v>0.9896634944557861</v>
+      </c>
+      <c r="M22">
+        <v>0.9819208099947279</v>
+      </c>
+      <c r="N22">
+        <v>1.00109629749396</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>1.05</v>
+      </c>
+      <c r="C23">
+        <v>0.9624202332163652</v>
+      </c>
+      <c r="D23">
+        <v>0.975959994536035</v>
+      </c>
+      <c r="E23">
+        <v>0.9756128855397761</v>
+      </c>
+      <c r="F23">
+        <v>0.9685035209191172</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>1.034469106078679</v>
+      </c>
+      <c r="J23">
+        <v>0.9941999192965649</v>
+      </c>
+      <c r="K23">
+        <v>0.9916989649128563</v>
+      </c>
+      <c r="L23">
+        <v>0.9913590201341297</v>
+      </c>
+      <c r="M23">
+        <v>0.9843978853418064</v>
+      </c>
+      <c r="N23">
+        <v>1.001689924864515</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>1.05</v>
+      </c>
+      <c r="C24">
+        <v>0.9722583768391229</v>
+      </c>
+      <c r="D24">
+        <v>0.9840853344176111</v>
+      </c>
+      <c r="E24">
+        <v>0.9834998371365085</v>
+      </c>
+      <c r="F24">
+        <v>0.9794276148417842</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>1.037756287993238</v>
+      </c>
+      <c r="J24">
+        <v>1.000867784901202</v>
+      </c>
+      <c r="K24">
+        <v>0.9983978149296395</v>
+      </c>
+      <c r="L24">
+        <v>0.9978230455603806</v>
+      </c>
+      <c r="M24">
+        <v>0.9938259002248113</v>
+      </c>
+      <c r="N24">
+        <v>1.003950248865577</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>1.05</v>
+      </c>
+      <c r="C25">
+        <v>0.9830707339491819</v>
+      </c>
+      <c r="D25">
+        <v>0.9930500128858427</v>
+      </c>
+      <c r="E25">
+        <v>0.9922082184631524</v>
+      </c>
+      <c r="F25">
+        <v>0.9914303417188087</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="I25">
+        <v>1.041297405419089</v>
+      </c>
+      <c r="J25">
+        <v>1.008181583030733</v>
+      </c>
+      <c r="K25">
+        <v>1.005757185137514</v>
+      </c>
+      <c r="L25">
+        <v>1.004928708169059</v>
+      </c>
+      <c r="M25">
+        <v>1.00416316343336</v>
+      </c>
+      <c r="N25">
+        <v>1.00642899885245</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_58/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9912667752661835</v>
+        <v>1.027286492920964</v>
       </c>
       <c r="D2">
-        <v>0.9998698370258764</v>
+        <v>1.028635010049834</v>
       </c>
       <c r="E2">
-        <v>0.9988380280573601</v>
+        <v>1.027392551042137</v>
       </c>
       <c r="F2">
-        <v>1.000528144522264</v>
+        <v>1.037332505886597</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043921984187488</v>
+        <v>1.033220159888673</v>
       </c>
       <c r="J2">
-        <v>1.013711870579539</v>
+        <v>1.032445210090636</v>
       </c>
       <c r="K2">
-        <v>1.011330985523187</v>
+        <v>1.031451254316876</v>
       </c>
       <c r="L2">
-        <v>1.010313574766766</v>
+        <v>1.030212412616719</v>
       </c>
       <c r="M2">
-        <v>1.011980126353481</v>
+        <v>1.040123691758455</v>
       </c>
       <c r="N2">
-        <v>1.008302514194762</v>
+        <v>1.014794193185123</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9969952918148958</v>
+        <v>1.028445527965413</v>
       </c>
       <c r="D3">
-        <v>1.004649085580807</v>
+        <v>1.029647051331626</v>
       </c>
       <c r="E3">
-        <v>1.003486812341382</v>
+        <v>1.028381784931085</v>
       </c>
       <c r="F3">
-        <v>1.00688740201818</v>
+        <v>1.038676180860914</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045720715607745</v>
+        <v>1.033476123635515</v>
       </c>
       <c r="J3">
-        <v>1.017568204709549</v>
+        <v>1.033243289165005</v>
       </c>
       <c r="K3">
-        <v>1.015222824100262</v>
+        <v>1.032270722215918</v>
       </c>
       <c r="L3">
-        <v>1.014075272315958</v>
+        <v>1.031008871297636</v>
       </c>
       <c r="M3">
-        <v>1.017432909263338</v>
+        <v>1.041275739484115</v>
       </c>
       <c r="N3">
-        <v>1.009608328296963</v>
+        <v>1.015061666216107</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.000606576668051</v>
+        <v>1.029194878085899</v>
       </c>
       <c r="D4">
-        <v>1.007667352546167</v>
+        <v>1.030301635803313</v>
       </c>
       <c r="E4">
-        <v>1.00642388334866</v>
+        <v>1.029021718869997</v>
       </c>
       <c r="F4">
-        <v>1.01089675214108</v>
+        <v>1.039544959519403</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04683775214057</v>
+        <v>1.033639534863635</v>
       </c>
       <c r="J4">
-        <v>1.019994778869487</v>
+        <v>1.033758577818463</v>
       </c>
       <c r="K4">
-        <v>1.017674111860389</v>
+        <v>1.032800097011973</v>
       </c>
       <c r="L4">
-        <v>1.016445391142747</v>
+        <v>1.031523459970915</v>
       </c>
       <c r="M4">
-        <v>1.020865418139275</v>
+        <v>1.042019992310604</v>
       </c>
       <c r="N4">
-        <v>1.010429671212937</v>
+        <v>1.015234267369492</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.002102940952962</v>
+        <v>1.029509757682725</v>
       </c>
       <c r="D5">
-        <v>1.008919232522525</v>
+        <v>1.030576758588191</v>
       </c>
       <c r="E5">
-        <v>1.007642366256424</v>
+        <v>1.02929070815989</v>
       </c>
       <c r="F5">
-        <v>1.012558195014697</v>
+        <v>1.039910036873449</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047296493964033</v>
+        <v>1.033707703116965</v>
       </c>
       <c r="J5">
-        <v>1.02099912867843</v>
+        <v>1.033974937649984</v>
       </c>
       <c r="K5">
-        <v>1.018689258499991</v>
+        <v>1.033022437526981</v>
       </c>
       <c r="L5">
-        <v>1.017427112711875</v>
+        <v>1.031739608829578</v>
       </c>
       <c r="M5">
-        <v>1.022286520147406</v>
+        <v>1.042332591591925</v>
       </c>
       <c r="N5">
-        <v>1.01076953488076</v>
+        <v>1.015306716242162</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.002352936249727</v>
+        <v>1.029562618778009</v>
       </c>
       <c r="D6">
-        <v>1.009128453283741</v>
+        <v>1.03062294916071</v>
       </c>
       <c r="E6">
-        <v>1.007846021821881</v>
+        <v>1.029335870388776</v>
       </c>
       <c r="F6">
-        <v>1.012835778652662</v>
+        <v>1.039971325834876</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047372891852252</v>
+        <v>1.03371911780623</v>
       </c>
       <c r="J6">
-        <v>1.021166856687244</v>
+        <v>1.034011249760912</v>
       </c>
       <c r="K6">
-        <v>1.018858822970246</v>
+        <v>1.033059757271426</v>
       </c>
       <c r="L6">
-        <v>1.017591105093286</v>
+        <v>1.031775890397925</v>
       </c>
       <c r="M6">
-        <v>1.02252387187484</v>
+        <v>1.042385061768379</v>
       </c>
       <c r="N6">
-        <v>1.010826287324598</v>
+        <v>1.015318874129156</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.000626655585654</v>
+        <v>1.02919908609842</v>
       </c>
       <c r="D7">
-        <v>1.007684146041598</v>
+        <v>1.030305312259693</v>
       </c>
       <c r="E7">
-        <v>1.006440227735177</v>
+        <v>1.029025313269915</v>
       </c>
       <c r="F7">
-        <v>1.010919045579403</v>
+        <v>1.039549838314904</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046843924087918</v>
+        <v>1.033640447812665</v>
       </c>
       <c r="J7">
-        <v>1.020008260196159</v>
+        <v>1.03376146987899</v>
       </c>
       <c r="K7">
-        <v>1.017687735866368</v>
+        <v>1.03280306875544</v>
       </c>
       <c r="L7">
-        <v>1.016458565814984</v>
+        <v>1.031526348885274</v>
       </c>
       <c r="M7">
-        <v>1.020884491835802</v>
+        <v>1.042024170392786</v>
       </c>
       <c r="N7">
-        <v>1.010434233536233</v>
+        <v>1.015235235877162</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9932231606702178</v>
+        <v>1.027678324436274</v>
       </c>
       <c r="D8">
-        <v>1.001500855942386</v>
+        <v>1.028977091489018</v>
       </c>
       <c r="E8">
-        <v>1.000424267373081</v>
+        <v>1.027726902312778</v>
       </c>
       <c r="F8">
-        <v>1.002699865080224</v>
+        <v>1.037786747410742</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044539801203213</v>
+        <v>1.033307122739522</v>
       </c>
       <c r="J8">
-        <v>1.015029787769103</v>
+        <v>1.032715157583938</v>
       </c>
       <c r="K8">
-        <v>1.012660535489571</v>
+        <v>1.03172837926306</v>
       </c>
       <c r="L8">
-        <v>1.011598494752849</v>
+        <v>1.030481740242936</v>
       </c>
       <c r="M8">
-        <v>1.013843388757027</v>
+        <v>1.040513281443928</v>
       </c>
       <c r="N8">
-        <v>1.008748846777269</v>
+        <v>1.014884684812043</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9793959894348029</v>
+        <v>1.024993687293389</v>
       </c>
       <c r="D9">
-        <v>0.989999142524681</v>
+        <v>1.026634451039057</v>
       </c>
       <c r="E9">
-        <v>0.9892437588776662</v>
+        <v>1.025437618188876</v>
       </c>
       <c r="F9">
-        <v>0.987351242274212</v>
+        <v>1.034674700337787</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040103216310637</v>
+        <v>1.032702786655087</v>
       </c>
       <c r="J9">
-        <v>1.005697913040109</v>
+        <v>1.030862780993875</v>
       </c>
       <c r="K9">
-        <v>1.0032565877438</v>
+        <v>1.029827886206333</v>
       </c>
       <c r="L9">
-        <v>1.002513793029147</v>
+        <v>1.028635041227412</v>
       </c>
       <c r="M9">
-        <v>1.000652925409393</v>
+        <v>1.037841607483024</v>
       </c>
       <c r="N9">
-        <v>1.005587348531194</v>
+        <v>1.014263342271197</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9695755158061026</v>
+        <v>1.023200533607043</v>
       </c>
       <c r="D10">
-        <v>0.9818665703145876</v>
+        <v>1.025071177687319</v>
       </c>
       <c r="E10">
-        <v>0.9813456060994692</v>
+        <v>1.023910479579008</v>
       </c>
       <c r="F10">
-        <v>0.9764489724002832</v>
+        <v>1.03259627997779</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036865525271268</v>
+        <v>1.032288460111656</v>
       </c>
       <c r="J10">
-        <v>0.9990504966707701</v>
+        <v>1.029621983049885</v>
       </c>
       <c r="K10">
-        <v>0.9965711341280107</v>
+        <v>1.028556283547366</v>
       </c>
       <c r="L10">
-        <v>0.99606004260164</v>
+        <v>1.027399836068135</v>
       </c>
       <c r="M10">
-        <v>0.991256878181061</v>
+        <v>1.036054083885344</v>
       </c>
       <c r="N10">
-        <v>1.003334236028091</v>
+        <v>1.013846655525646</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9651607860535507</v>
+        <v>1.022423243550061</v>
       </c>
       <c r="D11">
-        <v>0.9782203968848457</v>
+        <v>1.024393887500639</v>
       </c>
       <c r="E11">
-        <v>0.9778064040277957</v>
+        <v>1.023248971540133</v>
       </c>
       <c r="F11">
-        <v>0.9715469712854518</v>
+        <v>1.03169537515836</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035390370618926</v>
+        <v>1.032106333898798</v>
       </c>
       <c r="J11">
-        <v>0.9960583388467007</v>
+        <v>1.029083292461378</v>
       </c>
       <c r="K11">
-        <v>0.9935650741409476</v>
+        <v>1.028004556930181</v>
       </c>
       <c r="L11">
-        <v>0.9931593571873939</v>
+        <v>1.026863997999271</v>
       </c>
       <c r="M11">
-        <v>0.9870261861512241</v>
+        <v>1.035278510375971</v>
       </c>
       <c r="N11">
-        <v>1.002319925531756</v>
+        <v>1.013665637689646</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9634946983506938</v>
+        <v>1.022134394169519</v>
       </c>
       <c r="D12">
-        <v>0.9768459325316579</v>
+        <v>1.024142252749447</v>
       </c>
       <c r="E12">
-        <v>0.9764725577557615</v>
+        <v>1.02300321949533</v>
       </c>
       <c r="F12">
-        <v>0.9696967817300206</v>
+        <v>1.031360594688066</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034830784268055</v>
+        <v>1.032038274855762</v>
       </c>
       <c r="J12">
-        <v>0.9949286146002956</v>
+        <v>1.028882984372318</v>
       </c>
       <c r="K12">
-        <v>0.9924305909038547</v>
+        <v>1.02779945221925</v>
       </c>
       <c r="L12">
-        <v>0.9920648272944329</v>
+        <v>1.026664814367688</v>
       </c>
       <c r="M12">
-        <v>0.9854285194325524</v>
+        <v>1.03499018962311</v>
       </c>
       <c r="N12">
-        <v>1.001936951838433</v>
+        <v>1.013598310552879</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9638533001652226</v>
+        <v>1.02219635923336</v>
       </c>
       <c r="D13">
-        <v>0.9771416935800378</v>
+        <v>1.024196231953619</v>
       </c>
       <c r="E13">
-        <v>0.9767595649927757</v>
+        <v>1.023055935908347</v>
       </c>
       <c r="F13">
-        <v>0.9700950194397524</v>
+        <v>1.031432412827225</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034951355689947</v>
+        <v>1.032052892281025</v>
       </c>
       <c r="J13">
-        <v>0.9951717933266756</v>
+        <v>1.028925960865321</v>
       </c>
       <c r="K13">
-        <v>0.9926747717958686</v>
+        <v>1.027843455541954</v>
       </c>
       <c r="L13">
-        <v>0.992300400351057</v>
+        <v>1.026707546720754</v>
       </c>
       <c r="M13">
-        <v>0.9857724415892006</v>
+        <v>1.035052046235612</v>
       </c>
       <c r="N13">
-        <v>1.002019389038044</v>
+        <v>1.013612756489412</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9650236138797184</v>
+        <v>1.022399369822049</v>
       </c>
       <c r="D14">
-        <v>0.9781072019847042</v>
+        <v>1.024373088506622</v>
       </c>
       <c r="E14">
-        <v>0.9776965482062827</v>
+        <v>1.02322865839313</v>
       </c>
       <c r="F14">
-        <v>0.9713946463038738</v>
+        <v>1.031667705066272</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035344356643578</v>
+        <v>1.032100716469307</v>
       </c>
       <c r="J14">
-        <v>0.995965336304741</v>
+        <v>1.029066739315345</v>
       </c>
       <c r="K14">
-        <v>0.9934716698410763</v>
+        <v>1.027987606364458</v>
       </c>
       <c r="L14">
-        <v>0.9930692385322307</v>
+        <v>1.026847536476158</v>
       </c>
       <c r="M14">
-        <v>0.9868946683010933</v>
+        <v>1.035254682571054</v>
       </c>
       <c r="N14">
-        <v>1.002288398018102</v>
+        <v>1.013660074226804</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9657411440656969</v>
+        <v>1.022524434140462</v>
       </c>
       <c r="D15">
-        <v>0.978699374879117</v>
+        <v>1.024482047798577</v>
       </c>
       <c r="E15">
-        <v>0.9782712649460021</v>
+        <v>1.023335073271921</v>
       </c>
       <c r="F15">
-        <v>0.9721914299816382</v>
+        <v>1.031812657143491</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035584933471098</v>
+        <v>1.032130128281363</v>
       </c>
       <c r="J15">
-        <v>0.9964518006683196</v>
+        <v>1.029153449105488</v>
       </c>
       <c r="K15">
-        <v>0.993960255634311</v>
+        <v>1.028076400021281</v>
       </c>
       <c r="L15">
-        <v>0.9935406451141801</v>
+        <v>1.026933768931447</v>
       </c>
       <c r="M15">
-        <v>0.9875825792682954</v>
+        <v>1.035379501841319</v>
       </c>
       <c r="N15">
-        <v>1.002453307321727</v>
+        <v>1.013689216432515</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9698649306805381</v>
+        <v>1.023252101808842</v>
       </c>
       <c r="D16">
-        <v>0.9821058128542732</v>
+        <v>1.025116119015289</v>
       </c>
       <c r="E16">
-        <v>0.9815778696873559</v>
+        <v>1.023954376366533</v>
       </c>
       <c r="F16">
-        <v>0.9767703059717217</v>
+        <v>1.032656050036777</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036961830010154</v>
+        <v>1.03230048986887</v>
       </c>
       <c r="J16">
-        <v>0.9992465786098669</v>
+        <v>1.029657704186122</v>
       </c>
       <c r="K16">
-        <v>0.9967681943900044</v>
+        <v>1.02859287622405</v>
       </c>
       <c r="L16">
-        <v>0.9962502203270733</v>
+        <v>1.027435376984043</v>
       </c>
       <c r="M16">
-        <v>0.9915340864357814</v>
+        <v>1.036105522916709</v>
       </c>
       <c r="N16">
-        <v>1.003400703945433</v>
+        <v>1.013858656619858</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9724069380905054</v>
+        <v>1.02370832104361</v>
       </c>
       <c r="D17">
-        <v>0.9842082620603062</v>
+        <v>1.025513751637975</v>
       </c>
       <c r="E17">
-        <v>0.9836192019478804</v>
+        <v>1.02434278173463</v>
       </c>
       <c r="F17">
-        <v>0.9795925483495507</v>
+        <v>1.033184835076482</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037805481696181</v>
+        <v>1.032406624530053</v>
       </c>
       <c r="J17">
-        <v>1.000968389992094</v>
+        <v>1.029973629646041</v>
       </c>
       <c r="K17">
-        <v>0.9984989615135665</v>
+        <v>1.028916548742663</v>
       </c>
       <c r="L17">
-        <v>0.9979206741558629</v>
+        <v>1.027749757499651</v>
       </c>
       <c r="M17">
-        <v>0.9939681125217628</v>
+        <v>1.036560515744816</v>
       </c>
       <c r="N17">
-        <v>1.003984350464241</v>
+        <v>1.013964783768126</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9738741141891578</v>
+        <v>1.023974344879019</v>
       </c>
       <c r="D18">
-        <v>0.9854226517370255</v>
+        <v>1.025745647219669</v>
       </c>
       <c r="E18">
-        <v>0.9847984659599988</v>
+        <v>1.024569308285029</v>
       </c>
       <c r="F18">
-        <v>0.9812213826662165</v>
+        <v>1.03349317648202</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038290552609447</v>
+        <v>1.032468268674999</v>
       </c>
       <c r="J18">
-        <v>1.001961802920941</v>
+        <v>1.030157767018764</v>
       </c>
       <c r="K18">
-        <v>0.9994978445642244</v>
+        <v>1.029105234036637</v>
       </c>
       <c r="L18">
-        <v>0.9988848603338844</v>
+        <v>1.027933035286808</v>
       </c>
       <c r="M18">
-        <v>0.995372328362677</v>
+        <v>1.036825754682356</v>
       </c>
       <c r="N18">
-        <v>1.004321076857178</v>
+        <v>1.014026629069475</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9743718020018037</v>
+        <v>1.024065038451082</v>
       </c>
       <c r="D19">
-        <v>0.9858347427114621</v>
+        <v>1.025824711424667</v>
       </c>
       <c r="E19">
-        <v>0.9851986668666805</v>
+        <v>1.024646544001617</v>
       </c>
       <c r="F19">
-        <v>0.981773894623105</v>
+        <v>1.033598297788693</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038454777727903</v>
+        <v>1.032489243244196</v>
       </c>
       <c r="J19">
-        <v>1.0022987185957</v>
+        <v>1.030220529980258</v>
       </c>
       <c r="K19">
-        <v>0.9998366666603096</v>
+        <v>1.029169552671126</v>
       </c>
       <c r="L19">
-        <v>0.9992119320299855</v>
+        <v>1.027995512194732</v>
       </c>
       <c r="M19">
-        <v>0.9958485516439244</v>
+        <v>1.036916168844905</v>
       </c>
       <c r="N19">
-        <v>1.004435274958004</v>
+        <v>1.014047707086575</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9721358243379076</v>
+        <v>1.023659381448824</v>
       </c>
       <c r="D20">
-        <v>0.983983932991356</v>
+        <v>1.025471093239257</v>
       </c>
       <c r="E20">
-        <v>0.9834013756382534</v>
+        <v>1.024301111979993</v>
       </c>
       <c r="F20">
-        <v>0.9792915559133865</v>
+        <v>1.033128110780326</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.037715696120221</v>
+        <v>1.03239526443212</v>
       </c>
       <c r="J20">
-        <v>1.000784790733737</v>
+        <v>1.029939747975616</v>
       </c>
       <c r="K20">
-        <v>0.9983143757735246</v>
+        <v>1.028881832866039</v>
       </c>
       <c r="L20">
-        <v>0.9977425091422812</v>
+        <v>1.027716037287619</v>
       </c>
       <c r="M20">
-        <v>0.9937085815581522</v>
+        <v>1.036511714930794</v>
       </c>
       <c r="N20">
-        <v>1.003922116676469</v>
+        <v>1.013953403215257</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9646797264964247</v>
+        <v>1.022339591852671</v>
       </c>
       <c r="D21">
-        <v>0.9778234507936028</v>
+        <v>1.024321010301566</v>
       </c>
       <c r="E21">
-        <v>0.9774211720263684</v>
+        <v>1.023177797000657</v>
       </c>
       <c r="F21">
-        <v>0.9710127675900601</v>
+        <v>1.031598421380783</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035228954748917</v>
+        <v>1.032086644740225</v>
       </c>
       <c r="J21">
-        <v>0.9957321732735734</v>
+        <v>1.02902528950215</v>
       </c>
       <c r="K21">
-        <v>0.993237507484386</v>
+        <v>1.0279451622139</v>
       </c>
       <c r="L21">
-        <v>0.9928433162094331</v>
+        <v>1.026806317120724</v>
       </c>
       <c r="M21">
-        <v>0.9865649394745245</v>
+        <v>1.035195017823042</v>
       </c>
       <c r="N21">
-        <v>1.002209356518399</v>
+        <v>1.013646142794458</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9598387789456109</v>
+        <v>1.021509038661657</v>
       </c>
       <c r="D22">
-        <v>0.9738329560656138</v>
+        <v>1.023597565263276</v>
       </c>
       <c r="E22">
-        <v>0.9735491773928283</v>
+        <v>1.022471300801067</v>
       </c>
       <c r="F22">
-        <v>0.9656364202703849</v>
+        <v>1.030635808113041</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033597677333314</v>
+        <v>1.03189023514449</v>
       </c>
       <c r="J22">
-        <v>0.9924488011585462</v>
+        <v>1.02844909182381</v>
       </c>
       <c r="K22">
-        <v>0.9899412417261471</v>
+        <v>1.027355262372921</v>
       </c>
       <c r="L22">
-        <v>0.9896634944557861</v>
+        <v>1.026233474212772</v>
       </c>
       <c r="M22">
-        <v>0.9819208099947279</v>
+        <v>1.034365778205699</v>
       </c>
       <c r="N22">
-        <v>1.00109629749396</v>
+        <v>1.013452440513609</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9624202332163652</v>
+        <v>1.02194940251485</v>
       </c>
       <c r="D23">
-        <v>0.975959994536035</v>
+        <v>1.02398111012996</v>
       </c>
       <c r="E23">
-        <v>0.9756128855397761</v>
+        <v>1.022845849461298</v>
       </c>
       <c r="F23">
-        <v>0.9685035209191172</v>
+        <v>1.031146188224175</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034469106078679</v>
+        <v>1.031994580262494</v>
       </c>
       <c r="J23">
-        <v>0.9941999192965649</v>
+        <v>1.028754663300966</v>
       </c>
       <c r="K23">
-        <v>0.9916989649128563</v>
+        <v>1.027668072622304</v>
       </c>
       <c r="L23">
-        <v>0.9913590201341297</v>
+        <v>1.026537231598505</v>
       </c>
       <c r="M23">
-        <v>0.9843978853418064</v>
+        <v>1.034805505704341</v>
       </c>
       <c r="N23">
-        <v>1.001689924864515</v>
+        <v>1.0135551747699</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9722583768391229</v>
+        <v>1.023681495395776</v>
       </c>
       <c r="D24">
-        <v>0.9840853344176111</v>
+        <v>1.025490368847204</v>
       </c>
       <c r="E24">
-        <v>0.9834998371365085</v>
+        <v>1.024319940821861</v>
       </c>
       <c r="F24">
-        <v>0.9794276148417842</v>
+        <v>1.033153742325933</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037756287993238</v>
+        <v>1.032400398382213</v>
       </c>
       <c r="J24">
-        <v>1.000867784901202</v>
+        <v>1.029955058066172</v>
       </c>
       <c r="K24">
-        <v>0.9983978149296395</v>
+        <v>1.028897519808278</v>
       </c>
       <c r="L24">
-        <v>0.9978230455603806</v>
+        <v>1.027731274293698</v>
       </c>
       <c r="M24">
-        <v>0.9938259002248113</v>
+        <v>1.03653376638353</v>
       </c>
       <c r="N24">
-        <v>1.003950248865577</v>
+        <v>1.013958545772965</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9830707339491819</v>
+        <v>1.025688319438913</v>
       </c>
       <c r="D25">
-        <v>0.9930500128858427</v>
+        <v>1.02724034121827</v>
       </c>
       <c r="E25">
-        <v>0.9922082184631524</v>
+        <v>1.026029615640851</v>
       </c>
       <c r="F25">
-        <v>0.9914303417188087</v>
+        <v>1.035479881270094</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041297405419089</v>
+        <v>1.032861035932169</v>
       </c>
       <c r="J25">
-        <v>1.008181583030733</v>
+        <v>1.031342695930946</v>
       </c>
       <c r="K25">
-        <v>1.005757185137514</v>
+        <v>1.030320016313921</v>
       </c>
       <c r="L25">
-        <v>1.004928708169059</v>
+        <v>1.029113170404962</v>
       </c>
       <c r="M25">
-        <v>1.00416316343336</v>
+        <v>1.038533416935838</v>
       </c>
       <c r="N25">
-        <v>1.00642899885245</v>
+        <v>1.014424406038485</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_58/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.027286492920964</v>
+        <v>0.9912667752661823</v>
       </c>
       <c r="D2">
-        <v>1.028635010049834</v>
+        <v>0.9998698370258751</v>
       </c>
       <c r="E2">
-        <v>1.027392551042137</v>
+        <v>0.9988380280573589</v>
       </c>
       <c r="F2">
-        <v>1.037332505886597</v>
+        <v>1.000528144522263</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033220159888673</v>
+        <v>1.043921984187488</v>
       </c>
       <c r="J2">
-        <v>1.032445210090636</v>
+        <v>1.013711870579538</v>
       </c>
       <c r="K2">
-        <v>1.031451254316876</v>
+        <v>1.011330985523186</v>
       </c>
       <c r="L2">
-        <v>1.030212412616719</v>
+        <v>1.010313574766765</v>
       </c>
       <c r="M2">
-        <v>1.040123691758455</v>
+        <v>1.01198012635348</v>
       </c>
       <c r="N2">
-        <v>1.014794193185123</v>
+        <v>1.008302514194761</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.028445527965413</v>
+        <v>0.9969952918148954</v>
       </c>
       <c r="D3">
-        <v>1.029647051331626</v>
+        <v>1.004649085580807</v>
       </c>
       <c r="E3">
-        <v>1.028381784931085</v>
+        <v>1.003486812341381</v>
       </c>
       <c r="F3">
-        <v>1.038676180860914</v>
+        <v>1.00688740201818</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033476123635515</v>
+        <v>1.045720715607745</v>
       </c>
       <c r="J3">
-        <v>1.033243289165005</v>
+        <v>1.017568204709548</v>
       </c>
       <c r="K3">
-        <v>1.032270722215918</v>
+        <v>1.015222824100262</v>
       </c>
       <c r="L3">
-        <v>1.031008871297636</v>
+        <v>1.014075272315958</v>
       </c>
       <c r="M3">
-        <v>1.041275739484115</v>
+        <v>1.017432909263337</v>
       </c>
       <c r="N3">
-        <v>1.015061666216107</v>
+        <v>1.009608328296963</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.029194878085899</v>
+        <v>1.000606576668049</v>
       </c>
       <c r="D4">
-        <v>1.030301635803313</v>
+        <v>1.007667352546166</v>
       </c>
       <c r="E4">
-        <v>1.029021718869997</v>
+        <v>1.006423883348659</v>
       </c>
       <c r="F4">
-        <v>1.039544959519403</v>
+        <v>1.010896752141079</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.033639534863635</v>
+        <v>1.046837752140569</v>
       </c>
       <c r="J4">
-        <v>1.033758577818463</v>
+        <v>1.019994778869486</v>
       </c>
       <c r="K4">
-        <v>1.032800097011973</v>
+        <v>1.017674111860388</v>
       </c>
       <c r="L4">
-        <v>1.031523459970915</v>
+        <v>1.016445391142746</v>
       </c>
       <c r="M4">
-        <v>1.042019992310604</v>
+        <v>1.020865418139274</v>
       </c>
       <c r="N4">
-        <v>1.015234267369492</v>
+        <v>1.010429671212937</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.029509757682725</v>
+        <v>1.002102940952962</v>
       </c>
       <c r="D5">
-        <v>1.030576758588191</v>
+        <v>1.008919232522525</v>
       </c>
       <c r="E5">
-        <v>1.02929070815989</v>
+        <v>1.007642366256424</v>
       </c>
       <c r="F5">
-        <v>1.039910036873449</v>
+        <v>1.012558195014696</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.033707703116965</v>
+        <v>1.047296493964033</v>
       </c>
       <c r="J5">
-        <v>1.033974937649984</v>
+        <v>1.02099912867843</v>
       </c>
       <c r="K5">
-        <v>1.033022437526981</v>
+        <v>1.018689258499991</v>
       </c>
       <c r="L5">
-        <v>1.031739608829578</v>
+        <v>1.017427112711875</v>
       </c>
       <c r="M5">
-        <v>1.042332591591925</v>
+        <v>1.022286520147406</v>
       </c>
       <c r="N5">
-        <v>1.015306716242162</v>
+        <v>1.01076953488076</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.029562618778009</v>
+        <v>1.002352936249726</v>
       </c>
       <c r="D6">
-        <v>1.03062294916071</v>
+        <v>1.009128453283741</v>
       </c>
       <c r="E6">
-        <v>1.029335870388776</v>
+        <v>1.00784602182188</v>
       </c>
       <c r="F6">
-        <v>1.039971325834876</v>
+        <v>1.012835778652662</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.03371911780623</v>
+        <v>1.047372891852251</v>
       </c>
       <c r="J6">
-        <v>1.034011249760912</v>
+        <v>1.021166856687243</v>
       </c>
       <c r="K6">
-        <v>1.033059757271426</v>
+        <v>1.018858822970245</v>
       </c>
       <c r="L6">
-        <v>1.031775890397925</v>
+        <v>1.017591105093285</v>
       </c>
       <c r="M6">
-        <v>1.042385061768379</v>
+        <v>1.02252387187484</v>
       </c>
       <c r="N6">
-        <v>1.015318874129156</v>
+        <v>1.010826287324597</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.02919908609842</v>
+        <v>1.000626655585654</v>
       </c>
       <c r="D7">
-        <v>1.030305312259693</v>
+        <v>1.007684146041598</v>
       </c>
       <c r="E7">
-        <v>1.029025313269915</v>
+        <v>1.006440227735177</v>
       </c>
       <c r="F7">
-        <v>1.039549838314904</v>
+        <v>1.010919045579403</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.033640447812665</v>
+        <v>1.046843924087918</v>
       </c>
       <c r="J7">
-        <v>1.03376146987899</v>
+        <v>1.020008260196159</v>
       </c>
       <c r="K7">
-        <v>1.03280306875544</v>
+        <v>1.017687735866368</v>
       </c>
       <c r="L7">
-        <v>1.031526348885274</v>
+        <v>1.016458565814984</v>
       </c>
       <c r="M7">
-        <v>1.042024170392786</v>
+        <v>1.020884491835802</v>
       </c>
       <c r="N7">
-        <v>1.015235235877162</v>
+        <v>1.010434233536233</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.027678324436274</v>
+        <v>0.993223160670217</v>
       </c>
       <c r="D8">
-        <v>1.028977091489018</v>
+        <v>1.001500855942385</v>
       </c>
       <c r="E8">
-        <v>1.027726902312778</v>
+        <v>1.00042426737308</v>
       </c>
       <c r="F8">
-        <v>1.037786747410742</v>
+        <v>1.002699865080223</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033307122739522</v>
+        <v>1.044539801203212</v>
       </c>
       <c r="J8">
-        <v>1.032715157583938</v>
+        <v>1.015029787769102</v>
       </c>
       <c r="K8">
-        <v>1.03172837926306</v>
+        <v>1.012660535489571</v>
       </c>
       <c r="L8">
-        <v>1.030481740242936</v>
+        <v>1.011598494752848</v>
       </c>
       <c r="M8">
-        <v>1.040513281443928</v>
+        <v>1.013843388757026</v>
       </c>
       <c r="N8">
-        <v>1.014884684812043</v>
+        <v>1.008748846777269</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.024993687293389</v>
+        <v>0.9793959894348021</v>
       </c>
       <c r="D9">
-        <v>1.026634451039057</v>
+        <v>0.98999914252468</v>
       </c>
       <c r="E9">
-        <v>1.025437618188876</v>
+        <v>0.9892437588776656</v>
       </c>
       <c r="F9">
-        <v>1.034674700337787</v>
+        <v>0.9873512422742111</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.032702786655087</v>
+        <v>1.040103216310637</v>
       </c>
       <c r="J9">
-        <v>1.030862780993875</v>
+        <v>1.005697913040108</v>
       </c>
       <c r="K9">
-        <v>1.029827886206333</v>
+        <v>1.003256587743799</v>
       </c>
       <c r="L9">
-        <v>1.028635041227412</v>
+        <v>1.002513793029146</v>
       </c>
       <c r="M9">
-        <v>1.037841607483024</v>
+        <v>1.000652925409392</v>
       </c>
       <c r="N9">
-        <v>1.014263342271197</v>
+        <v>1.005587348531194</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.023200533607043</v>
+        <v>0.969575515806101</v>
       </c>
       <c r="D10">
-        <v>1.025071177687319</v>
+        <v>0.9818665703145864</v>
       </c>
       <c r="E10">
-        <v>1.023910479579008</v>
+        <v>0.9813456060994679</v>
       </c>
       <c r="F10">
-        <v>1.03259627997779</v>
+        <v>0.9764489724002821</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032288460111656</v>
+        <v>1.036865525271268</v>
       </c>
       <c r="J10">
-        <v>1.029621983049885</v>
+        <v>0.9990504966707687</v>
       </c>
       <c r="K10">
-        <v>1.028556283547366</v>
+        <v>0.9965711341280095</v>
       </c>
       <c r="L10">
-        <v>1.027399836068135</v>
+        <v>0.9960600426016387</v>
       </c>
       <c r="M10">
-        <v>1.036054083885344</v>
+        <v>0.9912568781810596</v>
       </c>
       <c r="N10">
-        <v>1.013846655525646</v>
+        <v>1.003334236028091</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.022423243550061</v>
+        <v>0.9651607860535499</v>
       </c>
       <c r="D11">
-        <v>1.024393887500639</v>
+        <v>0.9782203968848447</v>
       </c>
       <c r="E11">
-        <v>1.023248971540133</v>
+        <v>0.9778064040277952</v>
       </c>
       <c r="F11">
-        <v>1.03169537515836</v>
+        <v>0.9715469712854512</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.032106333898798</v>
+        <v>1.035390370618925</v>
       </c>
       <c r="J11">
-        <v>1.029083292461378</v>
+        <v>0.9960583388467001</v>
       </c>
       <c r="K11">
-        <v>1.028004556930181</v>
+        <v>0.9935650741409467</v>
       </c>
       <c r="L11">
-        <v>1.026863997999271</v>
+        <v>0.9931593571873935</v>
       </c>
       <c r="M11">
-        <v>1.035278510375971</v>
+        <v>0.9870261861512234</v>
       </c>
       <c r="N11">
-        <v>1.013665637689646</v>
+        <v>1.002319925531756</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.022134394169519</v>
+        <v>0.9634946983506945</v>
       </c>
       <c r="D12">
-        <v>1.024142252749447</v>
+        <v>0.9768459325316584</v>
       </c>
       <c r="E12">
-        <v>1.02300321949533</v>
+        <v>0.9764725577557617</v>
       </c>
       <c r="F12">
-        <v>1.031360594688066</v>
+        <v>0.9696967817300215</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.032038274855762</v>
+        <v>1.034830784268055</v>
       </c>
       <c r="J12">
-        <v>1.028882984372318</v>
+        <v>0.9949286146002961</v>
       </c>
       <c r="K12">
-        <v>1.02779945221925</v>
+        <v>0.9924305909038552</v>
       </c>
       <c r="L12">
-        <v>1.026664814367688</v>
+        <v>0.9920648272944332</v>
       </c>
       <c r="M12">
-        <v>1.03499018962311</v>
+        <v>0.9854285194325529</v>
       </c>
       <c r="N12">
-        <v>1.013598310552879</v>
+        <v>1.001936951838433</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.02219635923336</v>
+        <v>0.9638533001652231</v>
       </c>
       <c r="D13">
-        <v>1.024196231953619</v>
+        <v>0.9771416935800381</v>
       </c>
       <c r="E13">
-        <v>1.023055935908347</v>
+        <v>0.9767595649927761</v>
       </c>
       <c r="F13">
-        <v>1.031432412827225</v>
+        <v>0.9700950194397528</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.032052892281025</v>
+        <v>1.034951355689947</v>
       </c>
       <c r="J13">
-        <v>1.028925960865321</v>
+        <v>0.995171793326676</v>
       </c>
       <c r="K13">
-        <v>1.027843455541954</v>
+        <v>0.9926747717958689</v>
       </c>
       <c r="L13">
-        <v>1.026707546720754</v>
+        <v>0.9923004003510573</v>
       </c>
       <c r="M13">
-        <v>1.035052046235612</v>
+        <v>0.9857724415892011</v>
       </c>
       <c r="N13">
-        <v>1.013612756489412</v>
+        <v>1.002019389038044</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.022399369822049</v>
+        <v>0.9650236138797179</v>
       </c>
       <c r="D14">
-        <v>1.024373088506622</v>
+        <v>0.9781072019847041</v>
       </c>
       <c r="E14">
-        <v>1.02322865839313</v>
+        <v>0.9776965482062824</v>
       </c>
       <c r="F14">
-        <v>1.031667705066272</v>
+        <v>0.9713946463038734</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.032100716469307</v>
+        <v>1.035344356643578</v>
       </c>
       <c r="J14">
-        <v>1.029066739315345</v>
+        <v>0.9959653363047408</v>
       </c>
       <c r="K14">
-        <v>1.027987606364458</v>
+        <v>0.993471669841076</v>
       </c>
       <c r="L14">
-        <v>1.026847536476158</v>
+        <v>0.9930692385322304</v>
       </c>
       <c r="M14">
-        <v>1.035254682571054</v>
+        <v>0.9868946683010928</v>
       </c>
       <c r="N14">
-        <v>1.013660074226804</v>
+        <v>1.002288398018102</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.022524434140462</v>
+        <v>0.9657411440656962</v>
       </c>
       <c r="D15">
-        <v>1.024482047798577</v>
+        <v>0.9786993748791161</v>
       </c>
       <c r="E15">
-        <v>1.023335073271921</v>
+        <v>0.9782712649460013</v>
       </c>
       <c r="F15">
-        <v>1.031812657143491</v>
+        <v>0.9721914299816373</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032130128281363</v>
+        <v>1.035584933471098</v>
       </c>
       <c r="J15">
-        <v>1.029153449105488</v>
+        <v>0.996451800668319</v>
       </c>
       <c r="K15">
-        <v>1.028076400021281</v>
+        <v>0.9939602556343102</v>
       </c>
       <c r="L15">
-        <v>1.026933768931447</v>
+        <v>0.9935406451141792</v>
       </c>
       <c r="M15">
-        <v>1.035379501841319</v>
+        <v>0.9875825792682946</v>
       </c>
       <c r="N15">
-        <v>1.013689216432515</v>
+        <v>1.002453307321727</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.023252101808842</v>
+        <v>0.9698649306805379</v>
       </c>
       <c r="D16">
-        <v>1.025116119015289</v>
+        <v>0.9821058128542729</v>
       </c>
       <c r="E16">
-        <v>1.023954376366533</v>
+        <v>0.9815778696873556</v>
       </c>
       <c r="F16">
-        <v>1.032656050036777</v>
+        <v>0.9767703059717214</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03230048986887</v>
+        <v>1.036961830010154</v>
       </c>
       <c r="J16">
-        <v>1.029657704186122</v>
+        <v>0.9992465786098665</v>
       </c>
       <c r="K16">
-        <v>1.02859287622405</v>
+        <v>0.9967681943900041</v>
       </c>
       <c r="L16">
-        <v>1.027435376984043</v>
+        <v>0.9962502203270729</v>
       </c>
       <c r="M16">
-        <v>1.036105522916709</v>
+        <v>0.991534086435781</v>
       </c>
       <c r="N16">
-        <v>1.013858656619858</v>
+        <v>1.003400703945432</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02370832104361</v>
+        <v>0.9724069380905066</v>
       </c>
       <c r="D17">
-        <v>1.025513751637975</v>
+        <v>0.9842082620603074</v>
       </c>
       <c r="E17">
-        <v>1.02434278173463</v>
+        <v>0.9836192019478817</v>
       </c>
       <c r="F17">
-        <v>1.033184835076482</v>
+        <v>0.9795925483495518</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.032406624530053</v>
+        <v>1.037805481696182</v>
       </c>
       <c r="J17">
-        <v>1.029973629646041</v>
+        <v>1.000968389992095</v>
       </c>
       <c r="K17">
-        <v>1.028916548742663</v>
+        <v>0.9984989615135677</v>
       </c>
       <c r="L17">
-        <v>1.027749757499651</v>
+        <v>0.9979206741558639</v>
       </c>
       <c r="M17">
-        <v>1.036560515744816</v>
+        <v>0.9939681125217636</v>
       </c>
       <c r="N17">
-        <v>1.013964783768126</v>
+        <v>1.003984350464241</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.023974344879019</v>
+        <v>0.9738741141891581</v>
       </c>
       <c r="D18">
-        <v>1.025745647219669</v>
+        <v>0.9854226517370263</v>
       </c>
       <c r="E18">
-        <v>1.024569308285029</v>
+        <v>0.9847984659599988</v>
       </c>
       <c r="F18">
-        <v>1.03349317648202</v>
+        <v>0.9812213826662169</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032468268674999</v>
+        <v>1.038290552609447</v>
       </c>
       <c r="J18">
-        <v>1.030157767018764</v>
+        <v>1.001961802920941</v>
       </c>
       <c r="K18">
-        <v>1.029105234036637</v>
+        <v>0.999497844564225</v>
       </c>
       <c r="L18">
-        <v>1.027933035286808</v>
+        <v>0.9988848603338845</v>
       </c>
       <c r="M18">
-        <v>1.036825754682356</v>
+        <v>0.9953723283626773</v>
       </c>
       <c r="N18">
-        <v>1.014026629069475</v>
+        <v>1.004321076857179</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.024065038451082</v>
+        <v>0.9743718020018036</v>
       </c>
       <c r="D19">
-        <v>1.025824711424667</v>
+        <v>0.9858347427114617</v>
       </c>
       <c r="E19">
-        <v>1.024646544001617</v>
+        <v>0.9851986668666801</v>
       </c>
       <c r="F19">
-        <v>1.033598297788693</v>
+        <v>0.9817738946231049</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.032489243244196</v>
+        <v>1.038454777727903</v>
       </c>
       <c r="J19">
-        <v>1.030220529980258</v>
+        <v>1.0022987185957</v>
       </c>
       <c r="K19">
-        <v>1.029169552671126</v>
+        <v>0.9998366666603092</v>
       </c>
       <c r="L19">
-        <v>1.027995512194732</v>
+        <v>0.9992119320299852</v>
       </c>
       <c r="M19">
-        <v>1.036916168844905</v>
+        <v>0.9958485516439244</v>
       </c>
       <c r="N19">
-        <v>1.014047707086575</v>
+        <v>1.004435274958004</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.023659381448824</v>
+        <v>0.9721358243379059</v>
       </c>
       <c r="D20">
-        <v>1.025471093239257</v>
+        <v>0.9839839329913544</v>
       </c>
       <c r="E20">
-        <v>1.024301111979993</v>
+        <v>0.9834013756382514</v>
       </c>
       <c r="F20">
-        <v>1.033128110780326</v>
+        <v>0.979291555913385</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03239526443212</v>
+        <v>1.03771569612022</v>
       </c>
       <c r="J20">
-        <v>1.029939747975616</v>
+        <v>1.000784790733735</v>
       </c>
       <c r="K20">
-        <v>1.028881832866039</v>
+        <v>0.9983143757735231</v>
       </c>
       <c r="L20">
-        <v>1.027716037287619</v>
+        <v>0.9977425091422794</v>
       </c>
       <c r="M20">
-        <v>1.036511714930794</v>
+        <v>0.993708581558151</v>
       </c>
       <c r="N20">
-        <v>1.013953403215257</v>
+        <v>1.003922116676468</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.022339591852671</v>
+        <v>0.964679726496425</v>
       </c>
       <c r="D21">
-        <v>1.024321010301566</v>
+        <v>0.9778234507936028</v>
       </c>
       <c r="E21">
-        <v>1.023177797000657</v>
+        <v>0.9774211720263687</v>
       </c>
       <c r="F21">
-        <v>1.031598421380783</v>
+        <v>0.9710127675900603</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.032086644740225</v>
+        <v>1.035228954748917</v>
       </c>
       <c r="J21">
-        <v>1.02902528950215</v>
+        <v>0.9957321732735736</v>
       </c>
       <c r="K21">
-        <v>1.0279451622139</v>
+        <v>0.9932375074843859</v>
       </c>
       <c r="L21">
-        <v>1.026806317120724</v>
+        <v>0.9928433162094333</v>
       </c>
       <c r="M21">
-        <v>1.035195017823042</v>
+        <v>0.9865649394745245</v>
       </c>
       <c r="N21">
-        <v>1.013646142794458</v>
+        <v>1.002209356518399</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.021509038661657</v>
+        <v>0.9598387789456101</v>
       </c>
       <c r="D22">
-        <v>1.023597565263276</v>
+        <v>0.9738329560656129</v>
       </c>
       <c r="E22">
-        <v>1.022471300801067</v>
+        <v>0.9735491773928273</v>
       </c>
       <c r="F22">
-        <v>1.030635808113041</v>
+        <v>0.9656364202703841</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.03189023514449</v>
+        <v>1.033597677333313</v>
       </c>
       <c r="J22">
-        <v>1.02844909182381</v>
+        <v>0.9924488011585453</v>
       </c>
       <c r="K22">
-        <v>1.027355262372921</v>
+        <v>0.9899412417261462</v>
       </c>
       <c r="L22">
-        <v>1.026233474212772</v>
+        <v>0.9896634944557851</v>
       </c>
       <c r="M22">
-        <v>1.034365778205699</v>
+        <v>0.9819208099947271</v>
       </c>
       <c r="N22">
-        <v>1.013452440513609</v>
+        <v>1.00109629749396</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.02194940251485</v>
+        <v>0.9624202332163644</v>
       </c>
       <c r="D23">
-        <v>1.02398111012996</v>
+        <v>0.9759599945360335</v>
       </c>
       <c r="E23">
-        <v>1.022845849461298</v>
+        <v>0.9756128855397751</v>
       </c>
       <c r="F23">
-        <v>1.031146188224175</v>
+        <v>0.9685035209191162</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.031994580262494</v>
+        <v>1.034469106078679</v>
       </c>
       <c r="J23">
-        <v>1.028754663300966</v>
+        <v>0.9941999192965641</v>
       </c>
       <c r="K23">
-        <v>1.027668072622304</v>
+        <v>0.991698964912855</v>
       </c>
       <c r="L23">
-        <v>1.026537231598505</v>
+        <v>0.9913590201341289</v>
       </c>
       <c r="M23">
-        <v>1.034805505704341</v>
+        <v>0.9843978853418055</v>
       </c>
       <c r="N23">
-        <v>1.0135551747699</v>
+        <v>1.001689924864515</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023681495395776</v>
+        <v>0.972258376839123</v>
       </c>
       <c r="D24">
-        <v>1.025490368847204</v>
+        <v>0.9840853344176114</v>
       </c>
       <c r="E24">
-        <v>1.024319940821861</v>
+        <v>0.9834998371365083</v>
       </c>
       <c r="F24">
-        <v>1.033153742325933</v>
+        <v>0.9794276148417844</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.032400398382213</v>
+        <v>1.037756287993238</v>
       </c>
       <c r="J24">
-        <v>1.029955058066172</v>
+        <v>1.000867784901202</v>
       </c>
       <c r="K24">
-        <v>1.028897519808278</v>
+        <v>0.9983978149296397</v>
       </c>
       <c r="L24">
-        <v>1.027731274293698</v>
+        <v>0.9978230455603804</v>
       </c>
       <c r="M24">
-        <v>1.03653376638353</v>
+        <v>0.9938259002248117</v>
       </c>
       <c r="N24">
-        <v>1.013958545772965</v>
+        <v>1.003950248865577</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.025688319438913</v>
+        <v>0.9830707339491819</v>
       </c>
       <c r="D25">
-        <v>1.02724034121827</v>
+        <v>0.9930500128858425</v>
       </c>
       <c r="E25">
-        <v>1.026029615640851</v>
+        <v>0.992208218463152</v>
       </c>
       <c r="F25">
-        <v>1.035479881270094</v>
+        <v>0.9914303417188084</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032861035932169</v>
+        <v>1.041297405419089</v>
       </c>
       <c r="J25">
-        <v>1.031342695930946</v>
+        <v>1.008181583030732</v>
       </c>
       <c r="K25">
-        <v>1.030320016313921</v>
+        <v>1.005757185137514</v>
       </c>
       <c r="L25">
-        <v>1.029113170404962</v>
+        <v>1.004928708169059</v>
       </c>
       <c r="M25">
-        <v>1.038533416935838</v>
+        <v>1.00416316343336</v>
       </c>
       <c r="N25">
-        <v>1.014424406038485</v>
+        <v>1.00642899885245</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_58/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,8 +412,20 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -421,40 +433,52 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9912667752661823</v>
+        <v>0.9674550498775368</v>
       </c>
       <c r="D2">
-        <v>0.9998698370258751</v>
+        <v>0.9853064488082777</v>
       </c>
       <c r="E2">
-        <v>0.9988380280573589</v>
+        <v>0.977029157364716</v>
       </c>
       <c r="F2">
-        <v>1.000528144522263</v>
+        <v>1.002523862735892</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.043921984187488</v>
+        <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>1.013711870579538</v>
+        <v>0.990654744464432</v>
       </c>
       <c r="K2">
-        <v>1.011330985523186</v>
+        <v>0.9969743560810762</v>
       </c>
       <c r="L2">
-        <v>1.010313574766765</v>
+        <v>0.9888180681363123</v>
       </c>
       <c r="M2">
-        <v>1.01198012635348</v>
+        <v>1.013948147772775</v>
       </c>
       <c r="N2">
-        <v>1.008302514194761</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>0.9980730409465293</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.019611102527495</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.008929429912344</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9969952918148954</v>
+        <v>0.9742898206476437</v>
       </c>
       <c r="D3">
-        <v>1.004649085580807</v>
+        <v>0.9906241182701854</v>
       </c>
       <c r="E3">
-        <v>1.003486812341381</v>
+        <v>0.9827826052599611</v>
       </c>
       <c r="F3">
-        <v>1.00688740201818</v>
+        <v>1.006907261470048</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.045720715607745</v>
+        <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>1.017568204709548</v>
+        <v>0.9955067840161641</v>
       </c>
       <c r="K3">
-        <v>1.015222824100262</v>
+        <v>1.001378387781753</v>
       </c>
       <c r="L3">
-        <v>1.014075272315958</v>
+        <v>0.993640631371875</v>
       </c>
       <c r="M3">
-        <v>1.017432909263337</v>
+        <v>1.01745251893406</v>
       </c>
       <c r="N3">
-        <v>1.009608328296963</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.000049397878891</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.022384655140048</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.012040962397814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.000606576668049</v>
+        <v>0.9785807041110614</v>
       </c>
       <c r="D4">
-        <v>1.007667352546166</v>
+        <v>0.9939696076165899</v>
       </c>
       <c r="E4">
-        <v>1.006423883348659</v>
+        <v>0.9863989406577748</v>
       </c>
       <c r="F4">
-        <v>1.010896752141079</v>
+        <v>1.009675080467274</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.046837752140569</v>
+        <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>1.019994778869486</v>
+        <v>0.9985486539962511</v>
       </c>
       <c r="K4">
-        <v>1.017674111860388</v>
+        <v>1.00414136321043</v>
       </c>
       <c r="L4">
-        <v>1.016445391142746</v>
+        <v>0.9966643384351341</v>
       </c>
       <c r="M4">
-        <v>1.020865418139274</v>
+        <v>1.019658121566488</v>
       </c>
       <c r="N4">
-        <v>1.010429671212937</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.00128408538587</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.024130284850641</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.013995712095109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.002102940952962</v>
+        <v>0.9803677440049713</v>
       </c>
       <c r="D5">
-        <v>1.008919232522525</v>
+        <v>0.9953682925789653</v>
       </c>
       <c r="E5">
-        <v>1.007642366256424</v>
+        <v>0.9879074536469319</v>
       </c>
       <c r="F5">
-        <v>1.012558195014696</v>
+        <v>1.01082870055621</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.047296493964033</v>
+        <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>1.02099912867843</v>
+        <v>0.9998178629266655</v>
       </c>
       <c r="K5">
-        <v>1.018689258499991</v>
+        <v>1.005296928943477</v>
       </c>
       <c r="L5">
-        <v>1.017427112711875</v>
+        <v>0.9979257235549346</v>
       </c>
       <c r="M5">
-        <v>1.022286520147406</v>
+        <v>1.020576798695386</v>
       </c>
       <c r="N5">
-        <v>1.01076953488076</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.001799612876056</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.02485737283185</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.014820280809375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.002352936249726</v>
+        <v>0.9806819322019474</v>
       </c>
       <c r="D6">
-        <v>1.009128453283741</v>
+        <v>0.9956188585345059</v>
       </c>
       <c r="E6">
-        <v>1.00784602182188</v>
+        <v>0.9881745068186847</v>
       </c>
       <c r="F6">
-        <v>1.012835778652662</v>
+        <v>1.011028351225005</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.047372891852251</v>
+        <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.021166856687243</v>
+        <v>1.000045124491886</v>
       </c>
       <c r="K6">
-        <v>1.018858822970245</v>
+        <v>1.005506583781962</v>
       </c>
       <c r="L6">
-        <v>1.017591105093285</v>
+        <v>0.9981512233045076</v>
       </c>
       <c r="M6">
-        <v>1.02252387187484</v>
+        <v>1.020737007657411</v>
       </c>
       <c r="N6">
-        <v>1.010826287324597</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.001893639510524</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.024984170303962</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.014977584161752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.000626655585654</v>
+        <v>0.9786479658229496</v>
       </c>
       <c r="D7">
-        <v>1.007684146041598</v>
+        <v>0.9940345449586898</v>
       </c>
       <c r="E7">
-        <v>1.006440227735177</v>
+        <v>0.9864606008229801</v>
       </c>
       <c r="F7">
-        <v>1.010919045579403</v>
+        <v>1.009709258978029</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.046843924087918</v>
+        <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>1.020008260196159</v>
+        <v>0.9986077939103173</v>
       </c>
       <c r="K7">
-        <v>1.017687735866368</v>
+        <v>1.004202479139779</v>
       </c>
       <c r="L7">
-        <v>1.016458565814984</v>
+        <v>0.9967221712380215</v>
       </c>
       <c r="M7">
-        <v>1.020884491835802</v>
+        <v>1.019688934730004</v>
       </c>
       <c r="N7">
-        <v>1.010434233536233</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.001313027070958</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.024154671973972</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.014059761892267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.993223160670217</v>
+        <v>0.9698503469049722</v>
       </c>
       <c r="D8">
-        <v>1.001500855942385</v>
+        <v>0.9871842841598372</v>
       </c>
       <c r="E8">
-        <v>1.00042426737308</v>
+        <v>0.9790511738725853</v>
       </c>
       <c r="F8">
-        <v>1.002699865080223</v>
+        <v>1.004044696538644</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.044539801203212</v>
+        <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>1.015029787769102</v>
+        <v>0.9923708016326775</v>
       </c>
       <c r="K8">
-        <v>1.012660535489571</v>
+        <v>0.9985406972049049</v>
       </c>
       <c r="L8">
-        <v>1.011598494752848</v>
+        <v>0.9905225919127031</v>
       </c>
       <c r="M8">
-        <v>1.013843388757026</v>
+        <v>1.01517015717013</v>
       </c>
       <c r="N8">
-        <v>1.008748846777269</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>0.9987795256957402</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.020578269464654</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.010060892704815</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9793959894348021</v>
+        <v>0.9531812734340492</v>
       </c>
       <c r="D9">
-        <v>0.98999914252468</v>
+        <v>0.9742465909889912</v>
       </c>
       <c r="E9">
-        <v>0.9892437588776656</v>
+        <v>0.9650439267004913</v>
       </c>
       <c r="F9">
-        <v>0.9873512422742111</v>
+        <v>0.9934653224055477</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.040103216310637</v>
+        <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>1.005697913040108</v>
+        <v>0.9805030031623245</v>
       </c>
       <c r="K9">
-        <v>1.003256587743799</v>
+        <v>0.9877717919194282</v>
       </c>
       <c r="L9">
-        <v>1.002513793029146</v>
+        <v>0.9787308004757616</v>
       </c>
       <c r="M9">
-        <v>1.000652925409392</v>
+        <v>1.006665317457124</v>
       </c>
       <c r="N9">
-        <v>1.005587348531194</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>0.9939174027499316</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.013847031935646</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.002442521311302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.969575515806101</v>
+        <v>0.9415478713277601</v>
       </c>
       <c r="D10">
-        <v>0.9818665703145864</v>
+        <v>0.9652980516152362</v>
       </c>
       <c r="E10">
-        <v>0.9813456060994679</v>
+        <v>0.9553362052589979</v>
       </c>
       <c r="F10">
-        <v>0.9764489724002821</v>
+        <v>0.9864207296136961</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.036865525271268</v>
+        <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>0.9990504966707687</v>
+        <v>0.9722891768694398</v>
       </c>
       <c r="K10">
-        <v>0.9965711341280095</v>
+        <v>0.9803234612885464</v>
       </c>
       <c r="L10">
-        <v>0.9960600426016387</v>
+        <v>0.9705615859991397</v>
       </c>
       <c r="M10">
-        <v>0.9912568781810596</v>
+        <v>1.00103956809476</v>
       </c>
       <c r="N10">
-        <v>1.003334236028091</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>0.9905579621308637</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.0094477568238</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>0.9971931822390453</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9651607860535499</v>
+        <v>0.9390651224301541</v>
       </c>
       <c r="D11">
-        <v>0.9782203968848447</v>
+        <v>0.9636466765582394</v>
       </c>
       <c r="E11">
-        <v>0.9778064040277952</v>
+        <v>0.9535489139680652</v>
       </c>
       <c r="F11">
-        <v>0.9715469712854512</v>
+        <v>0.9868251537020616</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035390370618925</v>
+        <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>0.9960583388467001</v>
+        <v>0.9712125460411518</v>
       </c>
       <c r="K11">
-        <v>0.9935650741409467</v>
+        <v>0.9792883457596281</v>
       </c>
       <c r="L11">
-        <v>0.9931593571873935</v>
+        <v>0.9694034196008029</v>
       </c>
       <c r="M11">
-        <v>0.9870261861512234</v>
+        <v>1.001999880004921</v>
       </c>
       <c r="N11">
-        <v>1.002319925531756</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>0.9903153918711718</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.010658447590985</v>
+      </c>
+      <c r="Q11">
+        <v>1.02</v>
+      </c>
+      <c r="R11">
+        <v>0.9964958618294129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9634946983506945</v>
+        <v>0.939150543101003</v>
       </c>
       <c r="D12">
-        <v>0.9768459325316584</v>
+        <v>0.9638970183033407</v>
       </c>
       <c r="E12">
-        <v>0.9764725577557617</v>
+        <v>0.9538410024933708</v>
       </c>
       <c r="F12">
-        <v>0.9696967817300215</v>
+        <v>0.9881974574554142</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034830784268055</v>
+        <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>0.9949286146002961</v>
+        <v>0.9717736976088036</v>
       </c>
       <c r="K12">
-        <v>0.9924305909038552</v>
+        <v>0.979750196082142</v>
       </c>
       <c r="L12">
-        <v>0.9920648272944332</v>
+        <v>0.9699093891059402</v>
       </c>
       <c r="M12">
-        <v>0.9854285194325529</v>
+        <v>1.003554323450689</v>
       </c>
       <c r="N12">
-        <v>1.001936951838433</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>0.990717956719345</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.012223635861</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>0.9968224390222589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9638533001652231</v>
+        <v>0.9412562254955165</v>
       </c>
       <c r="D13">
-        <v>0.9771416935800381</v>
+        <v>0.9656680413463739</v>
       </c>
       <c r="E13">
-        <v>0.9767595649927761</v>
+        <v>0.9557862425528755</v>
       </c>
       <c r="F13">
-        <v>0.9700950194397528</v>
+        <v>0.990438780137193</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034951355689947</v>
+        <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>0.995171793326676</v>
+        <v>0.9736703670193378</v>
       </c>
       <c r="K13">
-        <v>0.9926747717958689</v>
+        <v>0.9814375703928132</v>
       </c>
       <c r="L13">
-        <v>0.9923004003510573</v>
+        <v>0.9717654535997745</v>
       </c>
       <c r="M13">
-        <v>0.9857724415892011</v>
+        <v>1.005706821160615</v>
       </c>
       <c r="N13">
-        <v>1.002019389038044</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>0.9916646830948245</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.014208756226956</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>0.9980129660588051</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9650236138797179</v>
+        <v>0.943612572056496</v>
       </c>
       <c r="D14">
-        <v>0.9781072019847041</v>
+        <v>0.9675726996025771</v>
       </c>
       <c r="E14">
-        <v>0.9776965482062824</v>
+        <v>0.9578688586359662</v>
       </c>
       <c r="F14">
-        <v>0.9713946463038734</v>
+        <v>0.9923608067548719</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035344356643578</v>
+        <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>0.9959653363047408</v>
+        <v>0.9755743271759426</v>
       </c>
       <c r="K14">
-        <v>0.993471669841076</v>
+        <v>0.9831510115357158</v>
       </c>
       <c r="L14">
-        <v>0.9930692385322304</v>
+        <v>0.973649663250893</v>
       </c>
       <c r="M14">
-        <v>0.9868946683010928</v>
+        <v>1.007445399578772</v>
       </c>
       <c r="N14">
-        <v>1.002288398018102</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>0.992563524525739</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.015759716983119</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>0.999226044743644</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9657411440656962</v>
+        <v>0.9446539142322925</v>
       </c>
       <c r="D15">
-        <v>0.9786993748791161</v>
+        <v>0.9683948832024255</v>
       </c>
       <c r="E15">
-        <v>0.9782712649460013</v>
+        <v>0.9587618732038872</v>
       </c>
       <c r="F15">
-        <v>0.9721914299816373</v>
+        <v>0.9930769355945893</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035584933471098</v>
+        <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>0.996451800668319</v>
+        <v>0.9763589284847276</v>
       </c>
       <c r="K15">
-        <v>0.9939602556343102</v>
+        <v>0.9838630935582133</v>
       </c>
       <c r="L15">
-        <v>0.9935406451141792</v>
+        <v>0.9744292334139538</v>
       </c>
       <c r="M15">
-        <v>0.9875825792682946</v>
+        <v>1.008057941411137</v>
       </c>
       <c r="N15">
-        <v>1.002453307321727</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>0.992912743938543</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.016282033634216</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>0.9997357247651887</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9698649306805379</v>
+        <v>0.9491131376122176</v>
       </c>
       <c r="D16">
-        <v>0.9821058128542729</v>
+        <v>0.9717863544550184</v>
       </c>
       <c r="E16">
-        <v>0.9815778696873556</v>
+        <v>0.9624316709587767</v>
       </c>
       <c r="F16">
-        <v>0.9767703059717214</v>
+        <v>0.9956292374831226</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.036961830010154</v>
+        <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>0.9992465786098665</v>
+        <v>0.9794182433391128</v>
       </c>
       <c r="K16">
-        <v>0.9967681943900041</v>
+        <v>0.9866461711849911</v>
       </c>
       <c r="L16">
-        <v>0.9962502203270729</v>
+        <v>0.9774752748048031</v>
       </c>
       <c r="M16">
-        <v>0.991534086435781</v>
+        <v>1.010040947109212</v>
       </c>
       <c r="N16">
-        <v>1.003400703945432</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>0.9941288526800545</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.017809991295465</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.001706947803513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9724069380905066</v>
+        <v>0.9513218654712562</v>
       </c>
       <c r="D17">
-        <v>0.9842082620603074</v>
+        <v>0.9734113006517211</v>
       </c>
       <c r="E17">
-        <v>0.9836192019478817</v>
+        <v>0.9641778916556728</v>
       </c>
       <c r="F17">
-        <v>0.9795925483495518</v>
+        <v>0.9965954979463632</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.037805481696182</v>
+        <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>1.000968389992095</v>
+        <v>0.9807883320937277</v>
       </c>
       <c r="K17">
-        <v>0.9984989615135677</v>
+        <v>0.9879021601024786</v>
       </c>
       <c r="L17">
-        <v>0.9979206741558639</v>
+        <v>0.9788445835815649</v>
       </c>
       <c r="M17">
-        <v>0.9939681125217636</v>
+        <v>1.010663484903777</v>
       </c>
       <c r="N17">
-        <v>1.003984350464241</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>0.9945983572626884</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.018170713861252</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.002597759505456</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9738741141891581</v>
+        <v>0.9517111840624851</v>
       </c>
       <c r="D18">
-        <v>0.9854226517370263</v>
+        <v>0.9735788787394685</v>
       </c>
       <c r="E18">
-        <v>0.9847984659599988</v>
+        <v>0.9643442931011067</v>
       </c>
       <c r="F18">
-        <v>0.9812213826662169</v>
+        <v>0.9960864841734067</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.038290552609447</v>
+        <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>1.001961802920941</v>
+        <v>0.9807313523158222</v>
       </c>
       <c r="K18">
-        <v>0.999497844564225</v>
+        <v>0.9878698116607439</v>
       </c>
       <c r="L18">
-        <v>0.9988848603338845</v>
+        <v>0.9788082460020784</v>
       </c>
       <c r="M18">
-        <v>0.9953723283626773</v>
+        <v>1.009973113666459</v>
       </c>
       <c r="N18">
-        <v>1.004321076857179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>0.9944280468892214</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.01738233005653</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.002562701098813</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9743718020018036</v>
+        <v>0.9505202306776055</v>
       </c>
       <c r="D19">
-        <v>0.9858347427114617</v>
+        <v>0.9725028443490237</v>
       </c>
       <c r="E19">
-        <v>0.9851986668666801</v>
+        <v>0.9631542555706023</v>
       </c>
       <c r="F19">
-        <v>0.9817738946231049</v>
+        <v>0.9941652448091942</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.038454777727903</v>
+        <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>1.0022987185957</v>
+        <v>0.9794458077293738</v>
       </c>
       <c r="K19">
-        <v>0.9998366666603092</v>
+        <v>0.9867465203989293</v>
       </c>
       <c r="L19">
-        <v>0.9992119320299852</v>
+        <v>0.9775726712160825</v>
       </c>
       <c r="M19">
-        <v>0.9958485516439244</v>
+        <v>1.008020370771058</v>
       </c>
       <c r="N19">
-        <v>1.004435274958004</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>0.9937362669165641</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.015504605410459</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.001775131279672</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9721358243379059</v>
+        <v>0.9447404660335024</v>
       </c>
       <c r="D20">
-        <v>0.9839839329913544</v>
+        <v>0.9677854260613413</v>
       </c>
       <c r="E20">
-        <v>0.9834013756382514</v>
+        <v>0.9580153470537603</v>
       </c>
       <c r="F20">
-        <v>0.979291555913385</v>
+        <v>0.9883337230153292</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.03771569612022</v>
+        <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>1.000784790733735</v>
+        <v>0.9745812809992195</v>
       </c>
       <c r="K20">
-        <v>0.9983143757735231</v>
+        <v>0.9824194121333107</v>
       </c>
       <c r="L20">
-        <v>0.9977425091422794</v>
+        <v>0.9728389304563627</v>
       </c>
       <c r="M20">
-        <v>0.993708581558151</v>
+        <v>1.00258485936322</v>
       </c>
       <c r="N20">
-        <v>1.003922116676468</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>0.9915134763546158</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.010659807270515</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>0.9987195736057541</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.964679726496425</v>
+        <v>0.9353192821660551</v>
       </c>
       <c r="D21">
-        <v>0.9778234507936028</v>
+        <v>0.9605082820224634</v>
       </c>
       <c r="E21">
-        <v>0.9774211720263687</v>
+        <v>0.9501175672998693</v>
       </c>
       <c r="F21">
-        <v>0.9710127675900603</v>
+        <v>0.9822940334990312</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.035228954748917</v>
+        <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>0.9957321732735736</v>
+        <v>0.9677943410888428</v>
       </c>
       <c r="K21">
-        <v>0.9932375074843859</v>
+        <v>0.9762785585760082</v>
       </c>
       <c r="L21">
-        <v>0.9928433162094333</v>
+        <v>0.966109886394337</v>
       </c>
       <c r="M21">
-        <v>0.9865649394745245</v>
+        <v>0.9976187986527955</v>
       </c>
       <c r="N21">
-        <v>1.002209356518399</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>0.9886973794903069</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.006687001056468</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>0.9943807785171852</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9598387789456101</v>
+        <v>0.9292647464589707</v>
       </c>
       <c r="D22">
-        <v>0.9738329560656129</v>
+        <v>0.9558451779551608</v>
       </c>
       <c r="E22">
-        <v>0.9735491773928273</v>
+        <v>0.9450612511587243</v>
       </c>
       <c r="F22">
-        <v>0.9656364202703841</v>
+        <v>0.9785723212504531</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.033597677333313</v>
+        <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>0.9924488011585453</v>
+        <v>0.9634572145523018</v>
       </c>
       <c r="K22">
-        <v>0.9899412417261462</v>
+        <v>0.9723452084453067</v>
       </c>
       <c r="L22">
-        <v>0.9896634944557851</v>
+        <v>0.9618056979575912</v>
       </c>
       <c r="M22">
-        <v>0.9819208099947271</v>
+        <v>0.9945805606997453</v>
       </c>
       <c r="N22">
-        <v>1.00109629749396</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>0.9868987853310506</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.004282314707329</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>0.9915851543381375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9624202332163644</v>
+        <v>0.9324448531657611</v>
       </c>
       <c r="D23">
-        <v>0.9759599945360335</v>
+        <v>0.9582804514504542</v>
       </c>
       <c r="E23">
-        <v>0.9756128855397751</v>
+        <v>0.9477095249519852</v>
       </c>
       <c r="F23">
-        <v>0.9685035209191162</v>
+        <v>0.9805339264748065</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034469106078679</v>
+        <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>0.9941999192965641</v>
+        <v>0.9657230087772939</v>
       </c>
       <c r="K23">
-        <v>0.991698964912855</v>
+        <v>0.9743930845057036</v>
       </c>
       <c r="L23">
-        <v>0.9913590201341289</v>
+        <v>0.9640544504136676</v>
       </c>
       <c r="M23">
-        <v>0.9843978853418055</v>
+        <v>0.9961791168748078</v>
       </c>
       <c r="N23">
-        <v>1.001689924864515</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>0.9878325917763897</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.005547531498546</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>0.9930230427443903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.972258376839123</v>
+        <v>0.9445588951530048</v>
       </c>
       <c r="D24">
-        <v>0.9840853344176114</v>
+        <v>0.9676048249436685</v>
       </c>
       <c r="E24">
-        <v>0.9834998371365083</v>
+        <v>0.9578301212806076</v>
       </c>
       <c r="F24">
-        <v>0.9794276148417844</v>
+        <v>0.9880470704143816</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.037756287993238</v>
+        <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>1.000867784901202</v>
+        <v>0.974371786986019</v>
       </c>
       <c r="K24">
-        <v>0.9983978149296397</v>
+        <v>0.9822257659923791</v>
       </c>
       <c r="L24">
-        <v>0.9978230455603804</v>
+        <v>0.9726405964106694</v>
       </c>
       <c r="M24">
-        <v>0.9938259002248117</v>
+        <v>1.002287395578876</v>
       </c>
       <c r="N24">
-        <v>1.003950248865577</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>0.9914023765246397</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.010382056442537</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>0.9985537993069722</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9830707339491819</v>
+        <v>0.9577117607368277</v>
       </c>
       <c r="D25">
-        <v>0.9930500128858425</v>
+        <v>0.9777754119483141</v>
       </c>
       <c r="E25">
-        <v>0.992208218463152</v>
+        <v>0.9688547776487981</v>
       </c>
       <c r="F25">
-        <v>0.9914303417188084</v>
+        <v>0.9963077689202767</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041297405419089</v>
+        <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>1.008181583030732</v>
+        <v>0.9837511968057897</v>
       </c>
       <c r="K25">
-        <v>1.005757185137514</v>
+        <v>0.9907288205108185</v>
       </c>
       <c r="L25">
-        <v>1.004928708169059</v>
+        <v>0.981956623716665</v>
       </c>
       <c r="M25">
-        <v>1.00416316343336</v>
+        <v>1.008963673706567</v>
       </c>
       <c r="N25">
-        <v>1.00642899885245</v>
+        <v>0.9952606461305811</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.015666094955285</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.004563455218009</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_58/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_0_58/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9674550498775368</v>
+        <v>0.9747146114851726</v>
       </c>
       <c r="D2">
-        <v>0.9853064488082777</v>
+        <v>0.9927062214644278</v>
       </c>
       <c r="E2">
-        <v>0.977029157364716</v>
+        <v>0.9836633027695193</v>
       </c>
       <c r="F2">
-        <v>1.002523862735892</v>
+        <v>1.005668615888486</v>
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1.02</v>
       </c>
       <c r="I2">
         <v>1.045224098310553</v>
       </c>
       <c r="J2">
-        <v>0.990654744464432</v>
+        <v>0.9976788335034916</v>
       </c>
       <c r="K2">
-        <v>0.9969743560810762</v>
+        <v>1.004268114246481</v>
       </c>
       <c r="L2">
-        <v>0.9888180681363123</v>
+        <v>0.9953550253265988</v>
       </c>
       <c r="M2">
-        <v>1.013948147772775</v>
+        <v>1.017049538780006</v>
       </c>
       <c r="N2">
-        <v>0.9980730409465293</v>
+        <v>1.0049733127304</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.019611102527495</v>
+        <v>1.022065715003482</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.008929429912344</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.014096258396576</v>
+      </c>
+      <c r="S2">
+        <v>1.02</v>
+      </c>
+      <c r="T2">
+        <v>1.012227455563995</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>0.9742898206476437</v>
+        <v>0.9805122294698045</v>
       </c>
       <c r="D3">
-        <v>0.9906241182701854</v>
+        <v>0.9969539228980072</v>
       </c>
       <c r="E3">
-        <v>0.9827826052599611</v>
+        <v>0.9884720858892687</v>
       </c>
       <c r="F3">
-        <v>1.006907261470048</v>
+        <v>1.009599269397852</v>
       </c>
       <c r="G3">
         <v>1</v>
+      </c>
+      <c r="H3">
+        <v>1.02</v>
       </c>
       <c r="I3">
         <v>1.045318143171977</v>
       </c>
       <c r="J3">
-        <v>0.9955067840161641</v>
+        <v>1.001548626523787</v>
       </c>
       <c r="K3">
-        <v>1.001378387781753</v>
+        <v>1.007625927793555</v>
       </c>
       <c r="L3">
-        <v>0.993640631371875</v>
+        <v>0.9992546249443635</v>
       </c>
       <c r="M3">
-        <v>1.01745251893406</v>
+        <v>1.02011078164384</v>
       </c>
       <c r="N3">
-        <v>1.000049397878891</v>
+        <v>1.006203141542661</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.022384655140048</v>
+        <v>1.024488543242821</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.012040962397814</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.016467640012932</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.013154787333958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>0.9785807041110614</v>
+        <v>0.984169386596298</v>
       </c>
       <c r="D4">
-        <v>0.9939696076165899</v>
+        <v>0.9996399052237041</v>
       </c>
       <c r="E4">
-        <v>0.9863989406577748</v>
+        <v>0.991510553618832</v>
       </c>
       <c r="F4">
-        <v>1.009675080467274</v>
+        <v>1.012090911636385</v>
       </c>
       <c r="G4">
         <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1.02</v>
       </c>
       <c r="I4">
         <v>1.045357368412754</v>
       </c>
       <c r="J4">
-        <v>0.9985486539962511</v>
+        <v>1.003986896787961</v>
       </c>
       <c r="K4">
-        <v>1.00414136321043</v>
+        <v>1.009742678215859</v>
       </c>
       <c r="L4">
-        <v>0.9966643384351341</v>
+        <v>1.001712530297155</v>
       </c>
       <c r="M4">
-        <v>1.019658121566488</v>
+        <v>1.022045567764899</v>
       </c>
       <c r="N4">
-        <v>1.00128408538587</v>
+        <v>1.006975736416479</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.024130284850641</v>
+        <v>1.02601983004573</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.013995712095109</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.017965462305752</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.013734933550536</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>0.9803677440049713</v>
+        <v>0.9856952430241632</v>
       </c>
       <c r="D5">
-        <v>0.9953682925789653</v>
+        <v>1.000765703902938</v>
       </c>
       <c r="E5">
-        <v>0.9879074536469319</v>
+        <v>0.992780677764483</v>
       </c>
       <c r="F5">
-        <v>1.01082870055621</v>
+        <v>1.013130827326518</v>
       </c>
       <c r="G5">
         <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1.02</v>
       </c>
       <c r="I5">
         <v>1.045368675785518</v>
       </c>
       <c r="J5">
-        <v>0.9998178629266655</v>
+        <v>1.005006527680359</v>
       </c>
       <c r="K5">
-        <v>1.005296928943477</v>
+        <v>1.010630527888735</v>
       </c>
       <c r="L5">
-        <v>0.9979257235549346</v>
+        <v>1.002740212099814</v>
       </c>
       <c r="M5">
-        <v>1.020576798695386</v>
+        <v>1.02285262400458</v>
       </c>
       <c r="N5">
-        <v>1.001799612876056</v>
+        <v>1.007299241882625</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.02485737283185</v>
+        <v>1.026658573827986</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.014820280809375</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.018601390244469</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.013978404797867</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>0.9806819322019474</v>
+        <v>0.9859623137915167</v>
       </c>
       <c r="D6">
-        <v>0.9956188585345059</v>
+        <v>1.000967253919488</v>
       </c>
       <c r="E6">
-        <v>0.9881745068186847</v>
+        <v>0.9930045792930856</v>
       </c>
       <c r="F6">
-        <v>1.011028351225005</v>
+        <v>1.013309984142487</v>
       </c>
       <c r="G6">
         <v>1</v>
+      </c>
+      <c r="H6">
+        <v>1.02</v>
       </c>
       <c r="I6">
         <v>1.04537027023839</v>
       </c>
       <c r="J6">
-        <v>1.000045124491886</v>
+        <v>1.005188658750987</v>
       </c>
       <c r="K6">
-        <v>1.005506583781962</v>
+        <v>1.01079205444019</v>
       </c>
       <c r="L6">
-        <v>0.9981512233045076</v>
+        <v>1.00292336768244</v>
       </c>
       <c r="M6">
-        <v>1.020737007657411</v>
+        <v>1.022992697276936</v>
       </c>
       <c r="N6">
-        <v>1.001893639510524</v>
+        <v>1.007358218730067</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.024984170303962</v>
+        <v>1.0267694346062</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.014977584161752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.018725495262054</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.014024126083592</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>0.9786479658229496</v>
+        <v>0.9842378401082825</v>
       </c>
       <c r="D7">
-        <v>0.9940345449586898</v>
+        <v>0.9997041494986629</v>
       </c>
       <c r="E7">
-        <v>0.9864606008229801</v>
+        <v>0.9915740613470838</v>
       </c>
       <c r="F7">
-        <v>1.009709258978029</v>
+        <v>1.012125593914901</v>
       </c>
       <c r="G7">
         <v>1</v>
+      </c>
+      <c r="H7">
+        <v>1.02</v>
       </c>
       <c r="I7">
         <v>1.045357539874439</v>
       </c>
       <c r="J7">
-        <v>0.9986077939103173</v>
+        <v>1.00404728010962</v>
       </c>
       <c r="K7">
-        <v>1.004202479139779</v>
+        <v>1.009803143821091</v>
       </c>
       <c r="L7">
-        <v>0.9967221712380215</v>
+        <v>1.00177221913077</v>
       </c>
       <c r="M7">
-        <v>1.019688934730004</v>
+        <v>1.022076890685615</v>
       </c>
       <c r="N7">
-        <v>1.001313027070958</v>
+        <v>1.007026239053146</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.024154671973972</v>
+        <v>1.026044620548356</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.014059761892267</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.01803097281537</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.013757392593026</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9698503469049722</v>
+        <v>0.9767841813056569</v>
       </c>
       <c r="D8">
-        <v>0.9871842841598372</v>
+        <v>0.9942425783968012</v>
       </c>
       <c r="E8">
-        <v>0.9790511738725853</v>
+        <v>0.9853923226608786</v>
       </c>
       <c r="F8">
-        <v>1.004044696538644</v>
+        <v>1.007047044207241</v>
       </c>
       <c r="G8">
         <v>1</v>
+      </c>
+      <c r="H8">
+        <v>1.02</v>
       </c>
       <c r="I8">
         <v>1.045260356825638</v>
       </c>
       <c r="J8">
-        <v>0.9923708016326775</v>
+        <v>0.9990879491919579</v>
       </c>
       <c r="K8">
-        <v>0.9985406972049049</v>
+        <v>1.005501106575603</v>
       </c>
       <c r="L8">
-        <v>0.9905225919127031</v>
+        <v>0.9967738686683829</v>
       </c>
       <c r="M8">
-        <v>1.01517015717013</v>
+        <v>1.018132397483714</v>
       </c>
       <c r="N8">
-        <v>0.9987795256957402</v>
+        <v>1.005511955565284</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.020578269464654</v>
+        <v>1.02292274719624</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.010060892704815</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.01499412903749</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.012580187800726</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9531812734340492</v>
+        <v>0.9627743075941634</v>
       </c>
       <c r="D9">
-        <v>0.9742465909889912</v>
+        <v>0.9840071729591369</v>
       </c>
       <c r="E9">
-        <v>0.9650439267004913</v>
+        <v>0.9738024068608008</v>
       </c>
       <c r="F9">
-        <v>0.9934653224055477</v>
+        <v>0.997631416525135</v>
       </c>
       <c r="G9">
         <v>1</v>
+      </c>
+      <c r="H9">
+        <v>1.02</v>
       </c>
       <c r="I9">
         <v>1.044923609578788</v>
       </c>
       <c r="J9">
-        <v>0.9805030031623245</v>
+        <v>0.9897137323111371</v>
       </c>
       <c r="K9">
-        <v>0.9877717919194282</v>
+        <v>0.9973651637342098</v>
       </c>
       <c r="L9">
-        <v>0.9787308004757616</v>
+        <v>0.987335320394951</v>
       </c>
       <c r="M9">
-        <v>1.006665317457124</v>
+        <v>1.010763039591671</v>
       </c>
       <c r="N9">
-        <v>0.9939174027499316</v>
+        <v>1.002529190540586</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.013847031935646</v>
+        <v>1.017090222248259</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.002442521311302</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.009237518671656</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.010305738399031</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9415478713277601</v>
+        <v>0.9531697941729581</v>
       </c>
       <c r="D10">
-        <v>0.9652980516152362</v>
+        <v>0.9770715080504563</v>
       </c>
       <c r="E10">
-        <v>0.9553362052589979</v>
+        <v>0.9659340854952847</v>
       </c>
       <c r="F10">
-        <v>0.9864207296136961</v>
+        <v>0.9914719649612524</v>
       </c>
       <c r="G10">
         <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1.02</v>
       </c>
       <c r="I10">
         <v>1.044587919160615</v>
       </c>
       <c r="J10">
-        <v>0.9722891768694398</v>
+        <v>0.9833730392499916</v>
       </c>
       <c r="K10">
-        <v>0.9803234612885464</v>
+        <v>0.9918674625225814</v>
       </c>
       <c r="L10">
-        <v>0.9705615859991397</v>
+        <v>0.9809469116205833</v>
       </c>
       <c r="M10">
-        <v>1.00103956809476</v>
+        <v>1.005996921989577</v>
       </c>
       <c r="N10">
-        <v>0.9905579621308637</v>
+        <v>1.000641764992567</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.0094477568238</v>
+        <v>1.013371075732547</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>0.9971931822390453</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.005369234149248</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.008772521392709</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9390651224301541</v>
+        <v>0.9510313296409171</v>
       </c>
       <c r="D11">
-        <v>0.9636466765582394</v>
+        <v>0.9757654732149782</v>
       </c>
       <c r="E11">
-        <v>0.9535489139680652</v>
+        <v>0.964444568585884</v>
       </c>
       <c r="F11">
-        <v>0.9868251537020616</v>
+        <v>0.991981650601278</v>
       </c>
       <c r="G11">
         <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1.02</v>
       </c>
       <c r="I11">
         <v>1.0444161704399</v>
       </c>
       <c r="J11">
-        <v>0.9712125460411518</v>
+        <v>0.9825933467449566</v>
       </c>
       <c r="K11">
-        <v>0.9792883457596281</v>
+        <v>0.9911593606071817</v>
       </c>
       <c r="L11">
-        <v>0.9694034196008029</v>
+        <v>0.9800696710786762</v>
       </c>
       <c r="M11">
-        <v>1.001999880004921</v>
+        <v>1.007056382189531</v>
       </c>
       <c r="N11">
-        <v>0.9903153918711718</v>
+        <v>1.000777148231055</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.010658447590985</v>
+        <v>1.01465808859759</v>
       </c>
       <c r="Q11">
         <v>1.02</v>
       </c>
       <c r="R11">
-        <v>0.9964958618294129</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.004906102587668</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.008712628690282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.939150543101003</v>
+        <v>0.9509754675673977</v>
       </c>
       <c r="D12">
-        <v>0.9638970183033407</v>
+        <v>0.9758892488389219</v>
       </c>
       <c r="E12">
-        <v>0.9538410024933708</v>
+        <v>0.964591776710112</v>
       </c>
       <c r="F12">
-        <v>0.9881974574554142</v>
+        <v>0.9932615130113192</v>
       </c>
       <c r="G12">
         <v>1</v>
+      </c>
+      <c r="H12">
+        <v>1.02</v>
       </c>
       <c r="I12">
         <v>1.044348406001364</v>
       </c>
       <c r="J12">
-        <v>0.9717736976088036</v>
+        <v>0.9830099815366586</v>
       </c>
       <c r="K12">
-        <v>0.979750196082142</v>
+        <v>0.991493424377379</v>
       </c>
       <c r="L12">
-        <v>0.9699093891059402</v>
+        <v>0.9804303052085832</v>
       </c>
       <c r="M12">
-        <v>1.003554323450689</v>
+        <v>1.008518960582275</v>
       </c>
       <c r="N12">
-        <v>0.990717956719345</v>
+        <v>1.00113278120868</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.012223635861</v>
+        <v>1.016149211391118</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>0.9968224390222589</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.005142310029845</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.008911353051573</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9412562254955165</v>
+        <v>0.9525265549016968</v>
       </c>
       <c r="D13">
-        <v>0.9656680413463739</v>
+        <v>0.9771346834477201</v>
       </c>
       <c r="E13">
-        <v>0.9557862425528755</v>
+        <v>0.9660118272678718</v>
       </c>
       <c r="F13">
-        <v>0.990438780137193</v>
+        <v>0.9952420369181784</v>
       </c>
       <c r="G13">
         <v>1</v>
+      </c>
+      <c r="H13">
+        <v>1.02</v>
       </c>
       <c r="I13">
         <v>1.044363121405786</v>
       </c>
       <c r="J13">
-        <v>0.9736703670193378</v>
+        <v>0.9843848649679091</v>
       </c>
       <c r="K13">
-        <v>0.9814375703928132</v>
+        <v>0.9926679038960421</v>
       </c>
       <c r="L13">
-        <v>0.9717654535997745</v>
+        <v>0.9817741635954328</v>
       </c>
       <c r="M13">
-        <v>1.005706821160615</v>
+        <v>1.01041662079593</v>
       </c>
       <c r="N13">
-        <v>0.9916646830948245</v>
+        <v>1.00165028980801</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.014208756226956</v>
+        <v>1.017931856617523</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>0.9980129660588051</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.005969906132082</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.009329007160068</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.943612572056496</v>
+        <v>0.9543208945878078</v>
       </c>
       <c r="D14">
-        <v>0.9675726996025771</v>
+        <v>0.9785027762311198</v>
       </c>
       <c r="E14">
-        <v>0.9578688586359662</v>
+        <v>0.9675670840586271</v>
       </c>
       <c r="F14">
-        <v>0.9923608067548719</v>
+        <v>0.9969124015659506</v>
       </c>
       <c r="G14">
         <v>1</v>
+      </c>
+      <c r="H14">
+        <v>1.02</v>
       </c>
       <c r="I14">
         <v>1.044410650012188</v>
       </c>
       <c r="J14">
-        <v>0.9755743271759426</v>
+        <v>0.985764258656547</v>
       </c>
       <c r="K14">
-        <v>0.9831510115357158</v>
+        <v>0.9938593321371776</v>
       </c>
       <c r="L14">
-        <v>0.973649663250893</v>
+        <v>0.983145511622859</v>
       </c>
       <c r="M14">
-        <v>1.007445399578772</v>
+        <v>1.011909826967882</v>
       </c>
       <c r="N14">
-        <v>0.992563524525739</v>
+        <v>1.002083570378667</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.015759716983119</v>
+        <v>1.019288362514252</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>0.999226044743644</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.006813957086185</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.009718535585153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9446539142322925</v>
+        <v>0.9551343854173121</v>
       </c>
       <c r="D15">
-        <v>0.9683948832024255</v>
+        <v>0.9791054154904554</v>
       </c>
       <c r="E15">
-        <v>0.9587618732038872</v>
+        <v>0.9682484196736753</v>
       </c>
       <c r="F15">
-        <v>0.9930769355945893</v>
+        <v>0.9975293872409304</v>
       </c>
       <c r="G15">
         <v>1</v>
+      </c>
+      <c r="H15">
+        <v>1.02</v>
       </c>
       <c r="I15">
         <v>1.044439407833738</v>
       </c>
       <c r="J15">
-        <v>0.9763589284847276</v>
+        <v>0.9863373002138327</v>
       </c>
       <c r="K15">
-        <v>0.9838630935582133</v>
+        <v>0.9943582440068416</v>
       </c>
       <c r="L15">
-        <v>0.9744292334139538</v>
+        <v>0.9837196188602334</v>
       </c>
       <c r="M15">
-        <v>1.008057941411137</v>
+        <v>1.012425858928634</v>
       </c>
       <c r="N15">
-        <v>0.992912743938543</v>
+        <v>1.002236936942239</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.016282033634216</v>
+        <v>1.019734306774172</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>0.9997357247651887</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.007173415914579</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.009869844307987</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9491131376122176</v>
+        <v>0.9587576578433287</v>
       </c>
       <c r="D16">
-        <v>0.9717863544550184</v>
+        <v>0.9816749638179113</v>
       </c>
       <c r="E16">
-        <v>0.9624316709587767</v>
+        <v>0.9711567894493784</v>
       </c>
       <c r="F16">
-        <v>0.9956292374831226</v>
+        <v>0.999729115176863</v>
       </c>
       <c r="G16">
         <v>1</v>
+      </c>
+      <c r="H16">
+        <v>1.02</v>
       </c>
       <c r="I16">
         <v>1.044598761177637</v>
       </c>
       <c r="J16">
-        <v>0.9794182433391128</v>
+        <v>0.9886264616903301</v>
       </c>
       <c r="K16">
-        <v>0.9866461711849911</v>
+        <v>0.9963454799862005</v>
       </c>
       <c r="L16">
-        <v>0.9774752748048031</v>
+        <v>0.9860288292655787</v>
       </c>
       <c r="M16">
-        <v>1.010040947109212</v>
+        <v>1.014066570123707</v>
       </c>
       <c r="N16">
-        <v>0.9941288526800545</v>
+        <v>1.002714361095549</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.017809991295465</v>
+        <v>1.020991820410892</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.001706947803513</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.008582131330035</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.010394849854652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9513218654712562</v>
+        <v>0.9606311900476642</v>
       </c>
       <c r="D17">
-        <v>0.9734113006517211</v>
+        <v>0.9829596262530989</v>
       </c>
       <c r="E17">
-        <v>0.9641778916556728</v>
+        <v>0.9726067581761765</v>
       </c>
       <c r="F17">
-        <v>0.9965954979463632</v>
+        <v>1.000560164707453</v>
       </c>
       <c r="G17">
         <v>1</v>
+      </c>
+      <c r="H17">
+        <v>1.02</v>
       </c>
       <c r="I17">
         <v>1.044691650831722</v>
       </c>
       <c r="J17">
-        <v>0.9807883320937277</v>
+        <v>0.9896910903299792</v>
       </c>
       <c r="K17">
-        <v>0.9879021601024786</v>
+        <v>0.9972731807631787</v>
       </c>
       <c r="L17">
-        <v>0.9788445835815649</v>
+        <v>0.987112765121526</v>
       </c>
       <c r="M17">
-        <v>1.010663484903777</v>
+        <v>1.014558379330988</v>
       </c>
       <c r="N17">
-        <v>0.9945983572626884</v>
+        <v>1.002892544959258</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.018170713861252</v>
+        <v>1.021249531441651</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.002597759505456</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.009241022500461</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.010602620292222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9517111840624851</v>
+        <v>0.961072554770582</v>
       </c>
       <c r="D18">
-        <v>0.9735788787394685</v>
+        <v>0.9831631896829852</v>
       </c>
       <c r="E18">
-        <v>0.9643442931011067</v>
+        <v>0.9728363824668212</v>
       </c>
       <c r="F18">
-        <v>0.9960864841734067</v>
+        <v>1.000087842516806</v>
       </c>
       <c r="G18">
         <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1.02</v>
       </c>
       <c r="I18">
         <v>1.044743285667331</v>
       </c>
       <c r="J18">
-        <v>0.9807313523158222</v>
+        <v>0.9896913790980431</v>
       </c>
       <c r="K18">
-        <v>0.9878698116607439</v>
+        <v>0.9972790181571209</v>
       </c>
       <c r="L18">
-        <v>0.9788082460020784</v>
+        <v>0.9871410685064346</v>
       </c>
       <c r="M18">
-        <v>1.009973113666459</v>
+        <v>1.013905059856746</v>
       </c>
       <c r="N18">
-        <v>0.9944280468892214</v>
+        <v>1.00275429226846</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.01738233005653</v>
+        <v>1.020491106660638</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.002562701098813</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.009231908435564</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.010523260238521</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9505202306776055</v>
+        <v>0.9602404042384277</v>
       </c>
       <c r="D19">
-        <v>0.9725028443490237</v>
+        <v>0.9824262690578394</v>
       </c>
       <c r="E19">
-        <v>0.9631542555706023</v>
+        <v>0.9719913359778217</v>
       </c>
       <c r="F19">
-        <v>0.9941652448091942</v>
+        <v>0.9983433543837832</v>
       </c>
       <c r="G19">
         <v>1</v>
+      </c>
+      <c r="H19">
+        <v>1.02</v>
       </c>
       <c r="I19">
         <v>1.044760460044801</v>
       </c>
       <c r="J19">
-        <v>0.9794458077293738</v>
+        <v>0.988750468246635</v>
       </c>
       <c r="K19">
-        <v>0.9867465203989293</v>
+        <v>0.9964891888482499</v>
       </c>
       <c r="L19">
-        <v>0.9775726712160825</v>
+        <v>0.9862444596004208</v>
       </c>
       <c r="M19">
-        <v>1.008020370771058</v>
+        <v>1.012126047752556</v>
       </c>
       <c r="N19">
-        <v>0.9937362669165641</v>
+        <v>1.002336238317848</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.015504605410459</v>
+        <v>1.018751850874148</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.001775131279672</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.00868073038358</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.010209416769681</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9447404660335024</v>
+        <v>0.9557350254450444</v>
       </c>
       <c r="D20">
-        <v>0.9677854260613413</v>
+        <v>0.9789467929253717</v>
       </c>
       <c r="E20">
-        <v>0.9580153470537603</v>
+        <v>0.9680388241835385</v>
       </c>
       <c r="F20">
-        <v>0.9883337230153292</v>
+        <v>0.9931111561323444</v>
       </c>
       <c r="G20">
         <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1.02</v>
       </c>
       <c r="I20">
         <v>1.044681948034609</v>
       </c>
       <c r="J20">
-        <v>0.9745812809992195</v>
+        <v>0.9850857798721707</v>
       </c>
       <c r="K20">
-        <v>0.9824194121333107</v>
+        <v>0.9933702227688799</v>
       </c>
       <c r="L20">
-        <v>0.9728389304563627</v>
+        <v>0.9826679594686788</v>
       </c>
       <c r="M20">
-        <v>1.00258485936322</v>
+        <v>1.007276228871679</v>
       </c>
       <c r="N20">
-        <v>0.9915134763546158</v>
+        <v>1.001088466202963</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.010659807270515</v>
+        <v>1.014372667196474</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>0.9987195736057541</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.006479888011427</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.009199858138574</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9353192821660551</v>
+        <v>0.9482772076870786</v>
       </c>
       <c r="D21">
-        <v>0.9605082820224634</v>
+        <v>0.9735726979833659</v>
       </c>
       <c r="E21">
-        <v>0.9501175672998693</v>
+        <v>0.9619472615318935</v>
       </c>
       <c r="F21">
-        <v>0.9822940334990312</v>
+        <v>0.9879373811766247</v>
       </c>
       <c r="G21">
         <v>1</v>
+      </c>
+      <c r="H21">
+        <v>1.02</v>
       </c>
       <c r="I21">
         <v>1.044396763635349</v>
       </c>
       <c r="J21">
-        <v>0.9677943410888428</v>
+        <v>0.9801087341513356</v>
       </c>
       <c r="K21">
-        <v>0.9762785585760082</v>
+        <v>0.9890726578379198</v>
       </c>
       <c r="L21">
-        <v>0.966109886394337</v>
+        <v>0.9776872881386046</v>
       </c>
       <c r="M21">
-        <v>0.9976187986527955</v>
+        <v>1.003150944850503</v>
       </c>
       <c r="N21">
-        <v>0.9886973794903069</v>
+        <v>0.9999524594996249</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.006687001056468</v>
+        <v>1.011065527634876</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>0.9943807785171852</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.003444902052849</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.008005553226845</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9292647464589707</v>
+        <v>0.943521565417256</v>
       </c>
       <c r="D22">
-        <v>0.9558451779551608</v>
+        <v>0.9701589965661459</v>
       </c>
       <c r="E22">
-        <v>0.9450612511587243</v>
+        <v>0.9580843967215192</v>
       </c>
       <c r="F22">
-        <v>0.9785723212504531</v>
+        <v>0.9847865923071959</v>
       </c>
       <c r="G22">
         <v>1</v>
+      </c>
+      <c r="H22">
+        <v>1.02</v>
       </c>
       <c r="I22">
         <v>1.044194488544656</v>
       </c>
       <c r="J22">
-        <v>0.9634572145523018</v>
+        <v>0.9769576071214975</v>
       </c>
       <c r="K22">
-        <v>0.9723452084453067</v>
+        <v>0.9863457300089945</v>
       </c>
       <c r="L22">
-        <v>0.9618056979575912</v>
+        <v>0.9745345936095838</v>
       </c>
       <c r="M22">
-        <v>0.9945805606997453</v>
+        <v>1.000665576617027</v>
       </c>
       <c r="N22">
-        <v>0.9868987853310506</v>
+        <v>0.9992338912662163</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.004282314707329</v>
+        <v>1.009098437465813</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>0.9915851543381375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.001501270572315</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.007249095495472</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9324448531657611</v>
+        <v>0.9459920029096672</v>
       </c>
       <c r="D23">
-        <v>0.9582804514504542</v>
+        <v>0.9719139744987344</v>
       </c>
       <c r="E23">
-        <v>0.9477095249519852</v>
+        <v>0.9600778822517337</v>
       </c>
       <c r="F23">
-        <v>0.9805339264748065</v>
+        <v>0.9864362369021877</v>
       </c>
       <c r="G23">
         <v>1</v>
+      </c>
+      <c r="H23">
+        <v>1.02</v>
       </c>
       <c r="I23">
         <v>1.044303897290665</v>
       </c>
       <c r="J23">
-        <v>0.9657230087772939</v>
+        <v>0.9785759134955755</v>
       </c>
       <c r="K23">
-        <v>0.9743930845057036</v>
+        <v>0.9877368734942789</v>
       </c>
       <c r="L23">
-        <v>0.9640544504136676</v>
+        <v>0.9761516922964374</v>
       </c>
       <c r="M23">
-        <v>0.9961791168748078</v>
+        <v>1.001962102333137</v>
       </c>
       <c r="N23">
-        <v>0.9878325917763897</v>
+        <v>0.999548038895405</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.005547531498546</v>
+        <v>1.010124597219275</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>0.9930230427443903</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.002473880972493</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.007625501803392</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9445588951530048</v>
+        <v>0.9556103675712686</v>
       </c>
       <c r="D24">
-        <v>0.9676048249436685</v>
+        <v>0.9788200566110264</v>
       </c>
       <c r="E24">
-        <v>0.9578301212806076</v>
+        <v>0.9679079869996121</v>
       </c>
       <c r="F24">
-        <v>0.9880470704143816</v>
+        <v>0.9928533440537892</v>
       </c>
       <c r="G24">
         <v>1</v>
+      </c>
+      <c r="H24">
+        <v>1.02</v>
       </c>
       <c r="I24">
         <v>1.04468634017905</v>
       </c>
       <c r="J24">
-        <v>0.974371786986019</v>
+        <v>0.9849311363256759</v>
       </c>
       <c r="K24">
-        <v>0.9822257659923791</v>
+        <v>0.9932296130037145</v>
       </c>
       <c r="L24">
-        <v>0.9726405964106694</v>
+        <v>0.9825231297483614</v>
       </c>
       <c r="M24">
-        <v>1.002287395578876</v>
+        <v>1.007007136215486</v>
       </c>
       <c r="N24">
-        <v>0.9914023765246397</v>
+        <v>1.00101821889646</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.010382056442537</v>
+        <v>1.014117569019795</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>0.9985537993069722</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.006349165629374</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.009142783563774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9577117607368277</v>
+        <v>0.966534115259144</v>
       </c>
       <c r="D25">
-        <v>0.9777754119483141</v>
+        <v>0.986763634106161</v>
       </c>
       <c r="E25">
-        <v>0.9688547776487981</v>
+        <v>0.9769113257985256</v>
       </c>
       <c r="F25">
-        <v>0.9963077689202767</v>
+        <v>1.000136260129295</v>
       </c>
       <c r="G25">
         <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1.02</v>
       </c>
       <c r="I25">
         <v>1.045030265302785</v>
       </c>
       <c r="J25">
-        <v>0.9837511968057897</v>
+        <v>0.992242722505236</v>
       </c>
       <c r="K25">
-        <v>0.9907288205108185</v>
+        <v>0.9995709627100099</v>
       </c>
       <c r="L25">
-        <v>0.981956623716665</v>
+        <v>0.9898789600193393</v>
       </c>
       <c r="M25">
-        <v>1.008963673706567</v>
+        <v>1.012732461202941</v>
       </c>
       <c r="N25">
-        <v>0.9952606461305811</v>
+        <v>1.003308270657686</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.015666094955285</v>
+        <v>1.018648938440578</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.004563455218009</v>
+        <v>1.010829804234378</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.010931031376051</v>
       </c>
     </row>
   </sheetData>
